--- a/summeries/summary_qcost.xlsx
+++ b/summeries/summary_qcost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai.FAREAST\Documents\GitHub\quantum-logic\summeries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8308E6-970A-44E0-B586-623926F313C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D736AF-3AEC-407D-B40B-9AD380D6EE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2415" windowWidth="26280" windowHeight="11385" xr2:uid="{15ABC293-405C-462E-8E8C-BE0E81CEA200}"/>
+    <workbookView xWindow="2250" yWindow="2775" windowWidth="26280" windowHeight="11385" xr2:uid="{15ABC293-405C-462E-8E8C-BE0E81CEA200}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0123011-1B57-48AF-9231-E9A37AC2F31A}">
   <dimension ref="A1:BC367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H364" sqref="H364"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -737,6 +737,15 @@
       <c r="J2">
         <v>256</v>
       </c>
+      <c r="K2">
+        <v>256</v>
+      </c>
+      <c r="L2">
+        <v>256</v>
+      </c>
+      <c r="M2">
+        <v>256</v>
+      </c>
       <c r="N2">
         <v>256</v>
       </c>
@@ -807,6 +816,15 @@
         <v>0</v>
       </c>
       <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
@@ -883,6 +901,15 @@
       <c r="J3">
         <v>2304</v>
       </c>
+      <c r="K3">
+        <v>2304</v>
+      </c>
+      <c r="L3">
+        <v>2304</v>
+      </c>
+      <c r="M3">
+        <v>2304</v>
+      </c>
       <c r="N3">
         <v>2304</v>
       </c>
@@ -953,6 +980,15 @@
         <v>1.5</v>
       </c>
       <c r="AL3">
+        <v>1.5</v>
+      </c>
+      <c r="AM3">
+        <v>1.5</v>
+      </c>
+      <c r="AN3">
+        <v>1.5</v>
+      </c>
+      <c r="AO3">
         <v>1.5</v>
       </c>
       <c r="AP3">
@@ -1012,13 +1048,13 @@
         <v>11988</v>
       </c>
       <c r="E4">
-        <v>12048</v>
+        <v>12324</v>
       </c>
       <c r="F4">
-        <v>11328</v>
+        <v>11604</v>
       </c>
       <c r="G4">
-        <v>11712</v>
+        <v>11988</v>
       </c>
       <c r="H4">
         <v>12276</v>
@@ -1029,6 +1065,15 @@
       <c r="J4">
         <v>12276</v>
       </c>
+      <c r="K4">
+        <v>12996</v>
+      </c>
+      <c r="L4">
+        <v>12276</v>
+      </c>
+      <c r="M4">
+        <v>12660</v>
+      </c>
       <c r="N4">
         <v>11568</v>
       </c>
@@ -1084,13 +1129,13 @@
         <v>2.8641581632653001</v>
       </c>
       <c r="AG4">
-        <v>2.7882653061224398</v>
+        <v>2.75127551020408</v>
       </c>
       <c r="AH4">
-        <v>2.8928571428571401</v>
+        <v>2.8558673469387701</v>
       </c>
       <c r="AI4">
-        <v>2.8813775510204001</v>
+        <v>2.8443877551020398</v>
       </c>
       <c r="AJ4">
         <v>2.875</v>
@@ -1100,6 +1145,15 @@
       </c>
       <c r="AL4">
         <v>2.875</v>
+      </c>
+      <c r="AM4">
+        <v>2.7519132653061198</v>
+      </c>
+      <c r="AN4">
+        <v>2.8565051020408099</v>
+      </c>
+      <c r="AO4">
+        <v>2.84502551020408</v>
       </c>
       <c r="AP4">
         <v>2.94260204081632</v>
@@ -1158,13 +1212,13 @@
         <v>42515</v>
       </c>
       <c r="E5">
-        <v>42775</v>
+        <v>44820</v>
       </c>
       <c r="F5">
-        <v>38116</v>
+        <v>39957</v>
       </c>
       <c r="G5">
-        <v>40828</v>
+        <v>42873</v>
       </c>
       <c r="H5">
         <v>43859</v>
@@ -1175,6 +1229,15 @@
       <c r="J5">
         <v>43859</v>
       </c>
+      <c r="K5">
+        <v>48116</v>
+      </c>
+      <c r="L5">
+        <v>42965</v>
+      </c>
+      <c r="M5">
+        <v>46169</v>
+      </c>
       <c r="N5">
         <v>38768</v>
       </c>
@@ -1230,13 +1293,13 @@
         <v>4.1003401360544203</v>
       </c>
       <c r="AG5">
-        <v>4.0311968537414904</v>
+        <v>3.95041454081632</v>
       </c>
       <c r="AH5">
-        <v>4.1736288265306101</v>
+        <v>4.0880633503401302</v>
       </c>
       <c r="AI5">
-        <v>4.1391900510203996</v>
+        <v>4.0536245748299304</v>
       </c>
       <c r="AJ5">
         <v>4.1251594387755102</v>
@@ -1246,6 +1309,15 @@
       </c>
       <c r="AL5">
         <v>4.1251594387755102</v>
+      </c>
+      <c r="AM5">
+        <v>3.9516900510204001</v>
+      </c>
+      <c r="AN5">
+        <v>4.0879039115646201</v>
+      </c>
+      <c r="AO5">
+        <v>4.0534651360544203</v>
       </c>
       <c r="AP5">
         <v>4.3032525510203996</v>
@@ -1304,13 +1376,13 @@
         <v>107921</v>
       </c>
       <c r="E6">
-        <v>109061</v>
+        <v>115158</v>
       </c>
       <c r="F6">
-        <v>96012</v>
+        <v>101208</v>
       </c>
       <c r="G6">
-        <v>104107</v>
+        <v>110034</v>
       </c>
       <c r="H6">
         <v>109717</v>
@@ -1321,6 +1393,15 @@
       <c r="J6">
         <v>109717</v>
       </c>
+      <c r="K6">
+        <v>122254</v>
+      </c>
+      <c r="L6">
+        <v>107236</v>
+      </c>
+      <c r="M6">
+        <v>116980</v>
+      </c>
       <c r="N6">
         <v>93604</v>
       </c>
@@ -1376,13 +1457,13 @@
         <v>5.2103401360544197</v>
       </c>
       <c r="AG6">
-        <v>5.17193027210884</v>
+        <v>5.05456632653061</v>
       </c>
       <c r="AH6">
-        <v>5.3337414965986296</v>
+        <v>5.2120153061224404</v>
       </c>
       <c r="AI6">
-        <v>5.26486394557823</v>
+        <v>5.1431377551020399</v>
       </c>
       <c r="AJ6">
         <v>5.2490391156462497</v>
@@ -1392,6 +1473,15 @@
       </c>
       <c r="AL6">
         <v>5.2490391156462497</v>
+      </c>
+      <c r="AM6">
+        <v>5.0544897959183599</v>
+      </c>
+      <c r="AN6">
+        <v>5.2103911564625802</v>
+      </c>
+      <c r="AO6">
+        <v>5.14151360544217</v>
       </c>
       <c r="AP6">
         <v>5.5452465986394497</v>
@@ -1450,13 +1540,13 @@
         <v>206538</v>
       </c>
       <c r="E7">
-        <v>207901</v>
+        <v>218440</v>
       </c>
       <c r="F7">
-        <v>185289</v>
+        <v>195319</v>
       </c>
       <c r="G7">
-        <v>201815</v>
+        <v>212294</v>
       </c>
       <c r="H7">
         <v>202093</v>
@@ -1467,6 +1557,15 @@
       <c r="J7">
         <v>202093</v>
       </c>
+      <c r="K7">
+        <v>223395</v>
+      </c>
+      <c r="L7">
+        <v>199721</v>
+      </c>
+      <c r="M7">
+        <v>217516</v>
+      </c>
       <c r="N7">
         <v>172466</v>
       </c>
@@ -1522,13 +1621,13 @@
         <v>6.1687579719387697</v>
       </c>
       <c r="AG7">
-        <v>6.15399925595238</v>
+        <v>6.0210273171768698</v>
       </c>
       <c r="AH7">
-        <v>6.3463063350340096</v>
+        <v>6.2099383503401304</v>
       </c>
       <c r="AI7">
-        <v>6.2315104166666604</v>
+        <v>6.0951424319727803</v>
       </c>
       <c r="AJ7">
         <v>6.2280984268707398</v>
@@ -1538,6 +1637,15 @@
       </c>
       <c r="AL7">
         <v>6.2280984268707398</v>
+      </c>
+      <c r="AM7">
+        <v>6.0210273171768698</v>
+      </c>
+      <c r="AN7">
+        <v>6.2120748299319697</v>
+      </c>
+      <c r="AO7">
+        <v>6.0972789115646204</v>
       </c>
       <c r="AP7">
         <v>6.6125930059523803</v>
@@ -1596,13 +1704,13 @@
         <v>298427</v>
       </c>
       <c r="E8">
-        <v>299640</v>
+        <v>311731</v>
       </c>
       <c r="F8">
-        <v>274272</v>
+        <v>286169</v>
       </c>
       <c r="G8">
-        <v>294904</v>
+        <v>307322</v>
       </c>
       <c r="H8">
         <v>282334</v>
@@ -1613,6 +1721,15 @@
       <c r="J8">
         <v>282334</v>
       </c>
+      <c r="K8">
+        <v>303201</v>
+      </c>
+      <c r="L8">
+        <v>280696</v>
+      </c>
+      <c r="M8">
+        <v>299724</v>
+      </c>
       <c r="N8">
         <v>247086</v>
       </c>
@@ -1668,13 +1785,13 @@
         <v>6.9119490504535097</v>
       </c>
       <c r="AG8">
-        <v>6.9037503543083902</v>
+        <v>6.7835583191609903</v>
       </c>
       <c r="AH8">
-        <v>7.1412556689342397</v>
+        <v>7.0161688633786801</v>
       </c>
       <c r="AI8">
-        <v>6.9690617913832202</v>
+        <v>6.8439749858276597</v>
       </c>
       <c r="AJ8">
         <v>7.0044713718820804</v>
@@ -1684,6 +1801,15 @@
       </c>
       <c r="AL8">
         <v>7.0044713718820804</v>
+      </c>
+      <c r="AM8">
+        <v>6.7930608701814004</v>
+      </c>
+      <c r="AN8">
+        <v>7.0326849489795897</v>
+      </c>
+      <c r="AO8">
+        <v>6.8604910714285703</v>
       </c>
       <c r="AP8">
         <v>7.4108329790249403</v>
@@ -1742,13 +1868,13 @@
         <v>318457</v>
       </c>
       <c r="E9">
-        <v>321554</v>
+        <v>327350</v>
       </c>
       <c r="F9">
-        <v>307898</v>
+        <v>314253</v>
       </c>
       <c r="G9">
-        <v>319865</v>
+        <v>326030</v>
       </c>
       <c r="H9">
         <v>299691</v>
@@ -1759,6 +1885,15 @@
       <c r="J9">
         <v>299691</v>
       </c>
+      <c r="K9">
+        <v>308941</v>
+      </c>
+      <c r="L9">
+        <v>299924</v>
+      </c>
+      <c r="M9">
+        <v>306891</v>
+      </c>
       <c r="N9">
         <v>279056</v>
       </c>
@@ -1814,13 +1949,13 @@
         <v>7.3383897569444398</v>
       </c>
       <c r="AG9">
-        <v>7.28711867559523</v>
+        <v>7.2268911210317404</v>
       </c>
       <c r="AH9">
-        <v>7.5746806795634898</v>
+        <v>7.5137214781745998</v>
       </c>
       <c r="AI9">
-        <v>7.3336092509920601</v>
+        <v>7.2726500496031701</v>
       </c>
       <c r="AJ9">
         <v>7.4743923611111098</v>
@@ -1830,6 +1965,15 @@
       </c>
       <c r="AL9">
         <v>7.4743923611111098</v>
+      </c>
+      <c r="AM9">
+        <v>7.25687934027777</v>
+      </c>
+      <c r="AN9">
+        <v>7.5521205357142804</v>
+      </c>
+      <c r="AO9">
+        <v>7.3110491071428498</v>
       </c>
       <c r="AP9">
         <v>7.7504960317460299</v>
@@ -1888,13 +2032,13 @@
         <v>243581</v>
       </c>
       <c r="E10">
-        <v>245839</v>
+        <v>239079</v>
       </c>
       <c r="F10">
-        <v>259521</v>
+        <v>255983</v>
       </c>
       <c r="G10">
-        <v>248275</v>
+        <v>241909</v>
       </c>
       <c r="H10">
         <v>241923</v>
@@ -1905,6 +2049,15 @@
       <c r="J10">
         <v>241923</v>
       </c>
+      <c r="K10">
+        <v>231581</v>
+      </c>
+      <c r="L10">
+        <v>244238</v>
+      </c>
+      <c r="M10">
+        <v>232095</v>
+      </c>
       <c r="N10">
         <v>248978</v>
       </c>
@@ -1960,13 +2113,13 @@
         <v>7.0730158730158701</v>
       </c>
       <c r="AG10">
-        <v>7.0793898809523803</v>
+        <v>7.0304067460317397</v>
       </c>
       <c r="AH10">
-        <v>7.4295634920634903</v>
+        <v>7.38353174603174</v>
       </c>
       <c r="AI10">
-        <v>7.10813492063492</v>
+        <v>7.0621031746031697</v>
       </c>
       <c r="AJ10">
         <v>7.19325396825396</v>
@@ -1976,6 +2129,15 @@
       </c>
       <c r="AL10">
         <v>7.19325396825396</v>
+      </c>
+      <c r="AM10">
+        <v>6.9929563492063496</v>
+      </c>
+      <c r="AN10">
+        <v>7.3535714285714198</v>
+      </c>
+      <c r="AO10">
+        <v>7.0321428571428504</v>
       </c>
       <c r="AP10">
         <v>7.3049603174603099</v>
@@ -2034,13 +2196,13 @@
         <v>136209</v>
       </c>
       <c r="E11">
-        <v>132597</v>
+        <v>119987</v>
       </c>
       <c r="F11">
-        <v>161733</v>
+        <v>150678</v>
       </c>
       <c r="G11">
-        <v>139004</v>
+        <v>127293</v>
       </c>
       <c r="H11">
         <v>147686</v>
@@ -2050,6 +2212,15 @@
       </c>
       <c r="J11">
         <v>147686</v>
+      </c>
+      <c r="K11">
+        <v>124454</v>
+      </c>
+      <c r="L11">
+        <v>149955</v>
+      </c>
+      <c r="M11">
+        <v>130037</v>
       </c>
       <c r="N11">
         <v>177275</v>
@@ -2108,13 +2279,13 @@
         <v>54843</v>
       </c>
       <c r="E12">
-        <v>50776</v>
+        <v>40128</v>
       </c>
       <c r="F12">
-        <v>73470</v>
+        <v>62419</v>
       </c>
       <c r="G12">
-        <v>57193</v>
+        <v>45976</v>
       </c>
       <c r="H12">
         <v>68873</v>
@@ -2124,6 +2295,15 @@
       </c>
       <c r="J12">
         <v>68873</v>
+      </c>
+      <c r="K12">
+        <v>47010</v>
+      </c>
+      <c r="L12">
+        <v>69455</v>
+      </c>
+      <c r="M12">
+        <v>54570</v>
       </c>
       <c r="N12">
         <v>101506</v>
@@ -2182,13 +2362,13 @@
         <v>15662</v>
       </c>
       <c r="E13">
-        <v>13850</v>
+        <v>9011</v>
       </c>
       <c r="F13">
-        <v>24342</v>
+        <v>17905</v>
       </c>
       <c r="G13">
-        <v>17012</v>
+        <v>11591</v>
       </c>
       <c r="H13">
         <v>24176</v>
@@ -2198,6 +2378,15 @@
       </c>
       <c r="J13">
         <v>24176</v>
+      </c>
+      <c r="K13">
+        <v>14031</v>
+      </c>
+      <c r="L13">
+        <v>24605</v>
+      </c>
+      <c r="M13">
+        <v>17679</v>
       </c>
       <c r="N13">
         <v>46183</v>
@@ -2256,13 +2445,13 @@
         <v>2760</v>
       </c>
       <c r="E14">
-        <v>2689</v>
+        <v>1083</v>
       </c>
       <c r="F14">
-        <v>5944</v>
+        <v>3308</v>
       </c>
       <c r="G14">
-        <v>3747</v>
+        <v>1710</v>
       </c>
       <c r="H14">
         <v>5773</v>
@@ -2272,6 +2461,15 @@
       </c>
       <c r="J14">
         <v>5773</v>
+      </c>
+      <c r="K14">
+        <v>2806</v>
+      </c>
+      <c r="L14">
+        <v>6743</v>
+      </c>
+      <c r="M14">
+        <v>4145</v>
       </c>
       <c r="N14">
         <v>16814</v>
@@ -2330,13 +2528,13 @@
         <v>259</v>
       </c>
       <c r="E15">
-        <v>390</v>
+        <v>58</v>
       </c>
       <c r="F15">
-        <v>1100</v>
+        <v>357</v>
       </c>
       <c r="G15">
-        <v>643</v>
+        <v>140</v>
       </c>
       <c r="H15">
         <v>735</v>
@@ -2346,6 +2544,15 @@
       </c>
       <c r="J15">
         <v>735</v>
+      </c>
+      <c r="K15">
+        <v>362</v>
+      </c>
+      <c r="L15">
+        <v>1253</v>
+      </c>
+      <c r="M15">
+        <v>661</v>
       </c>
       <c r="N15">
         <v>4732</v>
@@ -2403,14 +2610,11 @@
       <c r="D16">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>46</v>
-      </c>
       <c r="F16">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>33</v>
@@ -2420,6 +2624,15 @@
       </c>
       <c r="J16">
         <v>33</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>102</v>
+      </c>
+      <c r="M16">
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1004</v>
@@ -2468,15 +2681,6 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
       <c r="N17">
         <v>119</v>
       </c>
@@ -2601,13 +2805,13 @@
         <v>6.6377342759977704</v>
       </c>
       <c r="E20">
-        <v>6.6152612592241598</v>
+        <v>6.5079817358185901</v>
       </c>
       <c r="F20">
-        <v>6.8477487794169303</v>
+        <v>6.7371669710465696</v>
       </c>
       <c r="G20">
-        <v>6.6813610602269904</v>
+        <v>6.5707792518566199</v>
       </c>
       <c r="H20">
         <v>6.7267315840910404</v>
@@ -2617,6 +2821,15 @@
       </c>
       <c r="J20">
         <v>6.7267315840910404</v>
+      </c>
+      <c r="K20">
+        <v>6.5173753181076304</v>
+      </c>
+      <c r="L20">
+        <v>6.75181049975411</v>
+      </c>
+      <c r="M20">
+        <v>6.5854227805641701</v>
       </c>
       <c r="N20">
         <v>7.0776512090691099</v>
@@ -2856,6 +3069,15 @@
       <c r="J25">
         <v>256</v>
       </c>
+      <c r="K25">
+        <v>256</v>
+      </c>
+      <c r="L25">
+        <v>256</v>
+      </c>
+      <c r="M25">
+        <v>256</v>
+      </c>
       <c r="N25">
         <v>256</v>
       </c>
@@ -2926,6 +3148,15 @@
         <v>0</v>
       </c>
       <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
@@ -3002,6 +3233,15 @@
       <c r="J26">
         <v>1728</v>
       </c>
+      <c r="K26">
+        <v>1728</v>
+      </c>
+      <c r="L26">
+        <v>1728</v>
+      </c>
+      <c r="M26">
+        <v>1728</v>
+      </c>
       <c r="N26">
         <v>1728</v>
       </c>
@@ -3073,6 +3313,15 @@
       </c>
       <c r="AL26">
         <v>3</v>
+      </c>
+      <c r="AM26">
+        <v>2.75</v>
+      </c>
+      <c r="AN26">
+        <v>2.75</v>
+      </c>
+      <c r="AO26">
+        <v>2.75</v>
       </c>
       <c r="AP26">
         <v>3</v>
@@ -3131,13 +3380,13 @@
         <v>6852</v>
       </c>
       <c r="E27">
-        <v>6912</v>
+        <v>7188</v>
       </c>
       <c r="F27">
-        <v>6192</v>
+        <v>6468</v>
       </c>
       <c r="G27">
-        <v>6576</v>
+        <v>6852</v>
       </c>
       <c r="H27">
         <v>6852</v>
@@ -3148,6 +3397,15 @@
       <c r="J27">
         <v>6852</v>
       </c>
+      <c r="K27">
+        <v>7188</v>
+      </c>
+      <c r="L27">
+        <v>6468</v>
+      </c>
+      <c r="M27">
+        <v>6852</v>
+      </c>
       <c r="N27">
         <v>6432</v>
       </c>
@@ -3203,13 +3461,13 @@
         <v>5.8156887755101998</v>
       </c>
       <c r="AG27">
-        <v>5.6377551020408099</v>
+        <v>5.5446428571428497</v>
       </c>
       <c r="AH27">
-        <v>5.8622448979591804</v>
+        <v>5.7691326530612201</v>
       </c>
       <c r="AI27">
-        <v>5.8507653061224403</v>
+        <v>5.7576530612244898</v>
       </c>
       <c r="AJ27">
         <v>5.7729591836734597</v>
@@ -3219,6 +3477,15 @@
       </c>
       <c r="AL27">
         <v>5.7729591836734597</v>
+      </c>
+      <c r="AM27">
+        <v>5.1345663265306101</v>
+      </c>
+      <c r="AN27">
+        <v>5.3258928571428497</v>
+      </c>
+      <c r="AO27">
+        <v>5.3144132653061202</v>
       </c>
       <c r="AP27">
         <v>6.0727040816326499</v>
@@ -3277,13 +3544,13 @@
         <v>17183</v>
       </c>
       <c r="E28">
-        <v>17653</v>
+        <v>18930</v>
       </c>
       <c r="F28">
-        <v>14680</v>
+        <v>15753</v>
       </c>
       <c r="G28">
-        <v>16144</v>
+        <v>17421</v>
       </c>
       <c r="H28">
         <v>17183</v>
@@ -3294,6 +3561,15 @@
       <c r="J28">
         <v>17183</v>
       </c>
+      <c r="K28">
+        <v>18930</v>
+      </c>
+      <c r="L28">
+        <v>15753</v>
+      </c>
+      <c r="M28">
+        <v>17421</v>
+      </c>
       <c r="N28">
         <v>14840</v>
       </c>
@@ -3349,13 +3625,13 @@
         <v>8.5085034013605405</v>
       </c>
       <c r="AG28">
-        <v>8.4157631802720996</v>
+        <v>8.2027529761904692</v>
       </c>
       <c r="AH28">
-        <v>8.6060267857142794</v>
+        <v>8.3854698129251695</v>
       </c>
       <c r="AI28">
-        <v>8.5715880102040796</v>
+        <v>8.3510310374149608</v>
       </c>
       <c r="AJ28">
         <v>8.4006696428571406</v>
@@ -3365,6 +3641,15 @@
       </c>
       <c r="AL28">
         <v>8.4006696428571406</v>
+      </c>
+      <c r="AM28">
+        <v>7.6483312074829897</v>
+      </c>
+      <c r="AN28">
+        <v>7.7990008503401302</v>
+      </c>
+      <c r="AO28">
+        <v>7.7645620748299304</v>
       </c>
       <c r="AP28">
         <v>9.1903698979591795</v>
@@ -3423,13 +3708,13 @@
         <v>27224</v>
       </c>
       <c r="E29">
-        <v>28620</v>
+        <v>30589</v>
       </c>
       <c r="F29">
-        <v>24409</v>
+        <v>25883</v>
       </c>
       <c r="G29">
-        <v>26664</v>
+        <v>28463</v>
       </c>
       <c r="H29">
         <v>27224</v>
@@ -3440,6 +3725,15 @@
       <c r="J29">
         <v>27224</v>
       </c>
+      <c r="K29">
+        <v>30589</v>
+      </c>
+      <c r="L29">
+        <v>25883</v>
+      </c>
+      <c r="M29">
+        <v>28463</v>
+      </c>
       <c r="N29">
         <v>22632</v>
       </c>
@@ -3495,13 +3789,13 @@
         <v>11.145102040816299</v>
       </c>
       <c r="AG29">
-        <v>11.1605017006802</v>
+        <v>10.844498299319699</v>
       </c>
       <c r="AH29">
-        <v>11.267040816326499</v>
+        <v>10.9505187074829</v>
       </c>
       <c r="AI29">
-        <v>11.1981632653061</v>
+        <v>10.8816411564625</v>
       </c>
       <c r="AJ29">
         <v>10.9716921768707</v>
@@ -3511,6 +3805,15 @@
       </c>
       <c r="AL29">
         <v>10.9716921768707</v>
+      </c>
+      <c r="AM29">
+        <v>10.1542176870748</v>
+      </c>
+      <c r="AN29">
+        <v>10.239098639455699</v>
+      </c>
+      <c r="AO29">
+        <v>10.1702210884353</v>
       </c>
       <c r="AP29">
         <v>12.3068792517006</v>
@@ -3569,13 +3872,13 @@
         <v>27053</v>
       </c>
       <c r="E30">
-        <v>29110</v>
+        <v>29265</v>
       </c>
       <c r="F30">
-        <v>28527</v>
+        <v>29464</v>
       </c>
       <c r="G30">
-        <v>29346</v>
+        <v>29672</v>
       </c>
       <c r="H30">
         <v>27053</v>
@@ -3586,6 +3889,15 @@
       <c r="J30">
         <v>27053</v>
       </c>
+      <c r="K30">
+        <v>29265</v>
+      </c>
+      <c r="L30">
+        <v>29464</v>
+      </c>
+      <c r="M30">
+        <v>29672</v>
+      </c>
       <c r="N30">
         <v>23830</v>
       </c>
@@ -3641,13 +3953,13 @@
         <v>13.7304182610544</v>
       </c>
       <c r="AG30">
-        <v>13.7608870110544</v>
+        <v>13.413066007653001</v>
       </c>
       <c r="AH30">
-        <v>13.8629092261904</v>
+        <v>13.519887329931899</v>
       </c>
       <c r="AI30">
-        <v>13.7481133078231</v>
+        <v>13.4050914115646</v>
       </c>
       <c r="AJ30">
         <v>13.5024713010204</v>
@@ -3657,6 +3969,15 @@
       </c>
       <c r="AL30">
         <v>13.5024713010204</v>
+      </c>
+      <c r="AM30">
+        <v>12.566222895408099</v>
+      </c>
+      <c r="AN30">
+        <v>12.6582270408163</v>
+      </c>
+      <c r="AO30">
+        <v>12.543431122448901</v>
       </c>
       <c r="AP30">
         <v>15.325996492346899</v>
@@ -3715,13 +4036,13 @@
         <v>21186</v>
       </c>
       <c r="E31">
-        <v>22642</v>
+        <v>21504</v>
       </c>
       <c r="F31">
-        <v>26329</v>
+        <v>25819</v>
       </c>
       <c r="G31">
-        <v>24454</v>
+        <v>23792</v>
       </c>
       <c r="H31">
         <v>21474</v>
@@ -3732,6 +4053,15 @@
       <c r="J31">
         <v>21474</v>
       </c>
+      <c r="K31">
+        <v>22432</v>
+      </c>
+      <c r="L31">
+        <v>26747</v>
+      </c>
+      <c r="M31">
+        <v>24720</v>
+      </c>
       <c r="N31">
         <v>20964</v>
       </c>
@@ -3787,13 +4117,13 @@
         <v>16.110163336167801</v>
       </c>
       <c r="AG31">
-        <v>16.1030771683673</v>
+        <v>15.805312854308299</v>
       </c>
       <c r="AH31">
-        <v>16.275821995464799</v>
+        <v>15.9741762329931</v>
       </c>
       <c r="AI31">
-        <v>16.1036281179138</v>
+        <v>15.8019823554421</v>
       </c>
       <c r="AJ31">
         <v>15.834020691609901</v>
@@ -3803,6 +4133,15 @@
       </c>
       <c r="AL31">
         <v>15.834020691609901</v>
+      </c>
+      <c r="AM31">
+        <v>14.817819940476101</v>
+      </c>
+      <c r="AN31">
+        <v>14.978220663265301</v>
+      </c>
+      <c r="AO31">
+        <v>14.8060267857142</v>
       </c>
       <c r="AP31">
         <v>17.965481505102002</v>
@@ -3861,13 +4200,13 @@
         <v>24190</v>
       </c>
       <c r="E32">
-        <v>24883</v>
+        <v>24384</v>
       </c>
       <c r="F32">
-        <v>27167</v>
+        <v>26529</v>
       </c>
       <c r="G32">
-        <v>26708</v>
+        <v>25998</v>
       </c>
       <c r="H32">
         <v>25630</v>
@@ -3878,6 +4217,15 @@
       <c r="J32">
         <v>25630</v>
       </c>
+      <c r="K32">
+        <v>29248</v>
+      </c>
+      <c r="L32">
+        <v>31105</v>
+      </c>
+      <c r="M32">
+        <v>30862</v>
+      </c>
       <c r="N32">
         <v>23900</v>
       </c>
@@ -3933,13 +4281,13 @@
         <v>17.987323288690401</v>
       </c>
       <c r="AG32">
-        <v>17.760580977182499</v>
+        <v>17.7187562003968</v>
       </c>
       <c r="AH32">
-        <v>18.033510044642799</v>
+        <v>17.997972470238</v>
       </c>
       <c r="AI32">
-        <v>17.792438616071401</v>
+        <v>17.756901041666602</v>
       </c>
       <c r="AJ32">
         <v>17.618787202380901</v>
@@ -3949,6 +4297,15 @@
       </c>
       <c r="AL32">
         <v>17.618787202380901</v>
+      </c>
+      <c r="AM32">
+        <v>16.626596602182499</v>
+      </c>
+      <c r="AN32">
+        <v>16.896143353174601</v>
+      </c>
+      <c r="AO32">
+        <v>16.655071924603099</v>
       </c>
       <c r="AP32">
         <v>19.4271577380952</v>
@@ -4007,13 +4364,13 @@
         <v>44124</v>
       </c>
       <c r="E33">
-        <v>45068</v>
+        <v>47373</v>
       </c>
       <c r="F33">
-        <v>40673</v>
+        <v>42248</v>
       </c>
       <c r="G33">
-        <v>43230</v>
+        <v>45366</v>
       </c>
       <c r="H33">
         <v>48452</v>
@@ -4024,6 +4381,15 @@
       <c r="J33">
         <v>48452</v>
       </c>
+      <c r="K33">
+        <v>60817</v>
+      </c>
+      <c r="L33">
+        <v>54356</v>
+      </c>
+      <c r="M33">
+        <v>58616</v>
+      </c>
       <c r="N33">
         <v>38374</v>
       </c>
@@ -4079,13 +4445,13 @@
         <v>17.876190476190398</v>
       </c>
       <c r="AG33">
-        <v>17.747445436507899</v>
+        <v>17.7899305555555</v>
       </c>
       <c r="AH33">
-        <v>18.0803571428571</v>
+        <v>18.132738095238</v>
       </c>
       <c r="AI33">
-        <v>17.758928571428498</v>
+        <v>17.811309523809499</v>
       </c>
       <c r="AJ33">
         <v>17.034523809523801</v>
@@ -4095,6 +4461,15 @@
       </c>
       <c r="AL33">
         <v>17.034523809523801</v>
+      </c>
+      <c r="AM33">
+        <v>16.352480158730099</v>
+      </c>
+      <c r="AN33">
+        <v>16.699603174603102</v>
+      </c>
+      <c r="AO33">
+        <v>16.3781746031746</v>
       </c>
       <c r="AP33">
         <v>18.168452380952299</v>
@@ -4153,13 +4528,13 @@
         <v>70044</v>
       </c>
       <c r="E34">
-        <v>71537</v>
+        <v>76164</v>
       </c>
       <c r="F34">
-        <v>61979</v>
+        <v>65522</v>
       </c>
       <c r="G34">
-        <v>68018</v>
+        <v>72294</v>
       </c>
       <c r="H34">
         <v>78142</v>
@@ -4169,6 +4544,15 @@
       </c>
       <c r="J34">
         <v>78142</v>
+      </c>
+      <c r="K34">
+        <v>100312</v>
+      </c>
+      <c r="L34">
+        <v>87636</v>
+      </c>
+      <c r="M34">
+        <v>96430</v>
       </c>
       <c r="N34">
         <v>56128</v>
@@ -4227,13 +4611,13 @@
         <v>71453</v>
       </c>
       <c r="E35">
-        <v>74603</v>
+        <v>76487</v>
       </c>
       <c r="F35">
-        <v>72314</v>
+        <v>75093</v>
       </c>
       <c r="G35">
-        <v>74506</v>
+        <v>76255</v>
       </c>
       <c r="H35">
         <v>85069</v>
@@ -4243,6 +4627,15 @@
       </c>
       <c r="J35">
         <v>85069</v>
+      </c>
+      <c r="K35">
+        <v>106880</v>
+      </c>
+      <c r="L35">
+        <v>104482</v>
+      </c>
+      <c r="M35">
+        <v>107842</v>
       </c>
       <c r="N35">
         <v>58155</v>
@@ -4301,13 +4694,13 @@
         <v>53754</v>
       </c>
       <c r="E36">
-        <v>56814</v>
+        <v>55329</v>
       </c>
       <c r="F36">
-        <v>65181</v>
+        <v>64496</v>
       </c>
       <c r="G36">
-        <v>60802</v>
+        <v>59873</v>
       </c>
       <c r="H36">
         <v>71185</v>
@@ -4317,6 +4710,15 @@
       </c>
       <c r="J36">
         <v>71185</v>
+      </c>
+      <c r="K36">
+        <v>82815</v>
+      </c>
+      <c r="L36">
+        <v>93465</v>
+      </c>
+      <c r="M36">
+        <v>88467</v>
       </c>
       <c r="N36">
         <v>47959</v>
@@ -4375,13 +4777,13 @@
         <v>49050</v>
       </c>
       <c r="E37">
-        <v>52585</v>
+        <v>49966</v>
       </c>
       <c r="F37">
-        <v>59110</v>
+        <v>56579</v>
       </c>
       <c r="G37">
-        <v>56192</v>
+        <v>53297</v>
       </c>
       <c r="H37">
         <v>64537</v>
@@ -4391,6 +4793,15 @@
       </c>
       <c r="J37">
         <v>64537</v>
+      </c>
+      <c r="K37">
+        <v>68127</v>
+      </c>
+      <c r="L37">
+        <v>77579</v>
+      </c>
+      <c r="M37">
+        <v>72762</v>
       </c>
       <c r="N37">
         <v>46736</v>
@@ -4449,13 +4860,13 @@
         <v>77542</v>
       </c>
       <c r="E38">
-        <v>80117</v>
+        <v>81347</v>
       </c>
       <c r="F38">
-        <v>75132</v>
+        <v>75593</v>
       </c>
       <c r="G38">
-        <v>79238</v>
+        <v>80229</v>
       </c>
       <c r="H38">
         <v>84131</v>
@@ -4465,6 +4876,15 @@
       </c>
       <c r="J38">
         <v>84131</v>
+      </c>
+      <c r="K38">
+        <v>87346</v>
+      </c>
+      <c r="L38">
+        <v>85095</v>
+      </c>
+      <c r="M38">
+        <v>87442</v>
       </c>
       <c r="N38">
         <v>67001</v>
@@ -4523,13 +4943,13 @@
         <v>117602</v>
       </c>
       <c r="E39">
-        <v>116605</v>
+        <v>123100</v>
       </c>
       <c r="F39">
-        <v>103101</v>
+        <v>107772</v>
       </c>
       <c r="G39">
-        <v>112913</v>
+        <v>118949</v>
       </c>
       <c r="H39">
         <v>116950</v>
@@ -4539,6 +4959,15 @@
       </c>
       <c r="J39">
         <v>116950</v>
+      </c>
+      <c r="K39">
+        <v>122124</v>
+      </c>
+      <c r="L39">
+        <v>108651</v>
+      </c>
+      <c r="M39">
+        <v>118164</v>
       </c>
       <c r="N39">
         <v>94121</v>
@@ -4597,13 +5026,13 @@
         <v>116820</v>
       </c>
       <c r="E40">
-        <v>112409</v>
+        <v>117569</v>
       </c>
       <c r="F40">
-        <v>108690</v>
+        <v>114114</v>
       </c>
       <c r="G40">
-        <v>110969</v>
+        <v>116367</v>
       </c>
       <c r="H40">
         <v>117522</v>
@@ -4613,6 +5042,15 @@
       </c>
       <c r="J40">
         <v>117522</v>
+      </c>
+      <c r="K40">
+        <v>121584</v>
+      </c>
+      <c r="L40">
+        <v>115301</v>
+      </c>
+      <c r="M40">
+        <v>118082</v>
       </c>
       <c r="N40">
         <v>95835</v>
@@ -4671,13 +5109,13 @@
         <v>78931</v>
       </c>
       <c r="E41">
-        <v>70799</v>
+        <v>70987</v>
       </c>
       <c r="F41">
-        <v>85609</v>
+        <v>87564</v>
       </c>
       <c r="G41">
-        <v>75478</v>
+        <v>76098</v>
       </c>
       <c r="H41">
         <v>86027</v>
@@ -4687,6 +5125,15 @@
       </c>
       <c r="J41">
         <v>86027</v>
+      </c>
+      <c r="K41">
+        <v>79029</v>
+      </c>
+      <c r="L41">
+        <v>90411</v>
+      </c>
+      <c r="M41">
+        <v>82088</v>
       </c>
       <c r="N41">
         <v>72316</v>
@@ -4745,13 +5192,13 @@
         <v>62653</v>
       </c>
       <c r="E42">
-        <v>54856</v>
+        <v>54659</v>
       </c>
       <c r="F42">
-        <v>65753</v>
+        <v>65946</v>
       </c>
       <c r="G42">
-        <v>60107</v>
+        <v>60144</v>
       </c>
       <c r="H42">
         <v>60981</v>
@@ -4761,6 +5208,15 @@
       </c>
       <c r="J42">
         <v>60981</v>
+      </c>
+      <c r="K42">
+        <v>48657</v>
+      </c>
+      <c r="L42">
+        <v>62248</v>
+      </c>
+      <c r="M42">
+        <v>53739</v>
       </c>
       <c r="N42">
         <v>57709</v>
@@ -4819,13 +5275,13 @@
         <v>88129</v>
       </c>
       <c r="E43">
-        <v>83544</v>
+        <v>87724</v>
       </c>
       <c r="F43">
-        <v>78435</v>
+        <v>81461</v>
       </c>
       <c r="G43">
-        <v>83639</v>
+        <v>87575</v>
       </c>
       <c r="H43">
         <v>66972</v>
@@ -4835,6 +5291,15 @@
       </c>
       <c r="J43">
         <v>66972</v>
+      </c>
+      <c r="K43">
+        <v>60887</v>
+      </c>
+      <c r="L43">
+        <v>61324</v>
+      </c>
+      <c r="M43">
+        <v>62800</v>
       </c>
       <c r="N43">
         <v>71706</v>
@@ -4893,13 +5358,13 @@
         <v>122445</v>
       </c>
       <c r="E44">
-        <v>120442</v>
+        <v>127946</v>
       </c>
       <c r="F44">
-        <v>103967</v>
+        <v>110029</v>
       </c>
       <c r="G44">
-        <v>115099</v>
+        <v>122087</v>
       </c>
       <c r="H44">
         <v>86471</v>
@@ -4909,6 +5374,15 @@
       </c>
       <c r="J44">
         <v>86471</v>
+      </c>
+      <c r="K44">
+        <v>91353</v>
+      </c>
+      <c r="L44">
+        <v>78340</v>
+      </c>
+      <c r="M44">
+        <v>86238</v>
       </c>
       <c r="N44">
         <v>97418</v>
@@ -4967,13 +5441,13 @@
         <v>112126</v>
       </c>
       <c r="E45">
-        <v>108496</v>
+        <v>113569</v>
       </c>
       <c r="F45">
-        <v>104119</v>
+        <v>110040</v>
       </c>
       <c r="G45">
-        <v>104048</v>
+        <v>109336</v>
       </c>
       <c r="H45">
         <v>84005</v>
@@ -4983,6 +5457,15 @@
       </c>
       <c r="J45">
         <v>84005</v>
+      </c>
+      <c r="K45">
+        <v>92181</v>
+      </c>
+      <c r="L45">
+        <v>84204</v>
+      </c>
+      <c r="M45">
+        <v>85513</v>
       </c>
       <c r="N45">
         <v>98398</v>
@@ -5041,13 +5524,13 @@
         <v>68413</v>
       </c>
       <c r="E46">
-        <v>61142</v>
+        <v>61241</v>
       </c>
       <c r="F46">
-        <v>74275</v>
+        <v>75656</v>
       </c>
       <c r="G46">
-        <v>63305</v>
+        <v>64100</v>
       </c>
       <c r="H46">
         <v>59964</v>
@@ -5057,6 +5540,15 @@
       </c>
       <c r="J46">
         <v>59964</v>
+      </c>
+      <c r="K46">
+        <v>58814</v>
+      </c>
+      <c r="L46">
+        <v>64431</v>
+      </c>
+      <c r="M46">
+        <v>59023</v>
       </c>
       <c r="N46">
         <v>71434</v>
@@ -5115,13 +5607,13 @@
         <v>35847</v>
       </c>
       <c r="E47">
-        <v>33209</v>
+        <v>29057</v>
       </c>
       <c r="F47">
-        <v>44029</v>
+        <v>40862</v>
       </c>
       <c r="G47">
-        <v>37131</v>
+        <v>32959</v>
       </c>
       <c r="H47">
         <v>37931</v>
@@ -5131,6 +5623,15 @@
       </c>
       <c r="J47">
         <v>37931</v>
+      </c>
+      <c r="K47">
+        <v>27121</v>
+      </c>
+      <c r="L47">
+        <v>37793</v>
+      </c>
+      <c r="M47">
+        <v>30780</v>
       </c>
       <c r="N47">
         <v>46235</v>
@@ -5189,13 +5690,13 @@
         <v>32287</v>
       </c>
       <c r="E48">
-        <v>37205</v>
+        <v>31070</v>
       </c>
       <c r="F48">
-        <v>37302</v>
+        <v>31155</v>
       </c>
       <c r="G48">
-        <v>38093</v>
+        <v>31741</v>
       </c>
       <c r="H48">
         <v>33735</v>
@@ -5205,6 +5706,15 @@
       </c>
       <c r="J48">
         <v>33735</v>
+      </c>
+      <c r="K48">
+        <v>19751</v>
+      </c>
+      <c r="L48">
+        <v>23604</v>
+      </c>
+      <c r="M48">
+        <v>21467</v>
       </c>
       <c r="N48">
         <v>44730</v>
@@ -5263,13 +5773,13 @@
         <v>39717</v>
       </c>
       <c r="E49">
-        <v>49344</v>
+        <v>41081</v>
       </c>
       <c r="F49">
-        <v>42852</v>
+        <v>34840</v>
       </c>
       <c r="G49">
-        <v>47253</v>
+        <v>38859</v>
       </c>
       <c r="H49">
         <v>37492</v>
@@ -5279,6 +5789,15 @@
       </c>
       <c r="J49">
         <v>37492</v>
+      </c>
+      <c r="K49">
+        <v>23852</v>
+      </c>
+      <c r="L49">
+        <v>21641</v>
+      </c>
+      <c r="M49">
+        <v>23176</v>
       </c>
       <c r="N49">
         <v>57750</v>
@@ -5337,13 +5856,13 @@
         <v>35514</v>
       </c>
       <c r="E50">
-        <v>42566</v>
+        <v>34349</v>
       </c>
       <c r="F50">
-        <v>40648</v>
+        <v>32754</v>
       </c>
       <c r="G50">
-        <v>39798</v>
+        <v>31867</v>
       </c>
       <c r="H50">
         <v>33190</v>
@@ -5353,6 +5872,15 @@
       </c>
       <c r="J50">
         <v>33190</v>
+      </c>
+      <c r="K50">
+        <v>24063</v>
+      </c>
+      <c r="L50">
+        <v>21609</v>
+      </c>
+      <c r="M50">
+        <v>21948</v>
       </c>
       <c r="N50">
         <v>59255</v>
@@ -5411,13 +5939,13 @@
         <v>21040</v>
       </c>
       <c r="E51">
-        <v>22402</v>
+        <v>16246</v>
       </c>
       <c r="F51">
-        <v>26768</v>
+        <v>20602</v>
       </c>
       <c r="G51">
-        <v>22425</v>
+        <v>16444</v>
       </c>
       <c r="H51">
         <v>23344</v>
@@ -5427,6 +5955,15 @@
       </c>
       <c r="J51">
         <v>23344</v>
+      </c>
+      <c r="K51">
+        <v>16575</v>
+      </c>
+      <c r="L51">
+        <v>16962</v>
+      </c>
+      <c r="M51">
+        <v>15796</v>
       </c>
       <c r="N51">
         <v>42334</v>
@@ -5485,13 +6022,13 @@
         <v>7631</v>
       </c>
       <c r="E52">
-        <v>7276</v>
+        <v>4166</v>
       </c>
       <c r="F52">
-        <v>11839</v>
+        <v>8272</v>
       </c>
       <c r="G52">
-        <v>8548</v>
+        <v>5438</v>
       </c>
       <c r="H52">
         <v>13267</v>
@@ -5501,6 +6038,15 @@
       </c>
       <c r="J52">
         <v>13267</v>
+      </c>
+      <c r="K52">
+        <v>7407</v>
+      </c>
+      <c r="L52">
+        <v>9926</v>
+      </c>
+      <c r="M52">
+        <v>8202</v>
       </c>
       <c r="N52">
         <v>21284</v>
@@ -5559,13 +6105,13 @@
         <v>2228</v>
       </c>
       <c r="E53">
-        <v>2369</v>
+        <v>1397</v>
       </c>
       <c r="F53">
-        <v>4029</v>
+        <v>2434</v>
       </c>
       <c r="G53">
-        <v>2823</v>
+        <v>1614</v>
       </c>
       <c r="H53">
         <v>8843</v>
@@ -5575,6 +6121,15 @@
       </c>
       <c r="J53">
         <v>8843</v>
+      </c>
+      <c r="K53">
+        <v>2046</v>
+      </c>
+      <c r="L53">
+        <v>4143</v>
+      </c>
+      <c r="M53">
+        <v>2602</v>
       </c>
       <c r="N53">
         <v>12364</v>
@@ -5633,13 +6188,13 @@
         <v>2195</v>
       </c>
       <c r="E54">
-        <v>2112</v>
+        <v>2003</v>
       </c>
       <c r="F54">
-        <v>2238</v>
+        <v>1779</v>
       </c>
       <c r="G54">
-        <v>2151</v>
+        <v>1913</v>
       </c>
       <c r="H54">
         <v>7495</v>
@@ -5649,6 +6204,15 @@
       </c>
       <c r="J54">
         <v>7495</v>
+      </c>
+      <c r="K54">
+        <v>330</v>
+      </c>
+      <c r="L54">
+        <v>1022</v>
+      </c>
+      <c r="M54">
+        <v>536</v>
       </c>
       <c r="N54">
         <v>14941</v>
@@ -5707,13 +6271,13 @@
         <v>3152</v>
       </c>
       <c r="E55">
-        <v>2593</v>
+        <v>2877</v>
       </c>
       <c r="F55">
-        <v>2027</v>
+        <v>2118</v>
       </c>
       <c r="G55">
-        <v>2222</v>
+        <v>2463</v>
       </c>
       <c r="H55">
         <v>4924</v>
@@ -5723,6 +6287,15 @@
       </c>
       <c r="J55">
         <v>4924</v>
+      </c>
+      <c r="K55">
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <v>102</v>
+      </c>
+      <c r="M55">
+        <v>42</v>
       </c>
       <c r="N55">
         <v>18583</v>
@@ -5781,13 +6354,13 @@
         <v>2312</v>
       </c>
       <c r="E56">
-        <v>1500</v>
+        <v>1787</v>
       </c>
       <c r="F56">
-        <v>1538</v>
+        <v>1767</v>
       </c>
       <c r="G56">
-        <v>1343</v>
+        <v>1569</v>
       </c>
       <c r="H56">
         <v>2733</v>
@@ -5855,13 +6428,13 @@
         <v>826</v>
       </c>
       <c r="E57">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="F57">
-        <v>676</v>
+        <v>911</v>
       </c>
       <c r="G57">
-        <v>441</v>
+        <v>620</v>
       </c>
       <c r="H57">
         <v>833</v>
@@ -5929,13 +6502,13 @@
         <v>162</v>
       </c>
       <c r="E58">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F58">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="G58">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H58">
         <v>134</v>
@@ -6006,7 +6579,7 @@
         <v>4</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -6406,13 +6979,13 @@
         <v>15.4423792543536</v>
       </c>
       <c r="E70">
-        <v>15.393080114223901</v>
+        <v>15.1488816552902</v>
       </c>
       <c r="F70">
-        <v>15.5691353922963</v>
+        <v>15.326212485148</v>
       </c>
       <c r="G70">
-        <v>15.402747673106299</v>
+        <v>15.159824765958</v>
       </c>
       <c r="H70">
         <v>15.153172336826101</v>
@@ -6422,6 +6995,15 @@
       </c>
       <c r="J70">
         <v>15.153172336826101</v>
+      </c>
+      <c r="K70">
+        <v>14.192656872408</v>
+      </c>
+      <c r="L70">
+        <v>14.358585420699701</v>
+      </c>
+      <c r="M70">
+        <v>14.1921977015097</v>
       </c>
       <c r="N70">
         <v>17.019522392904602</v>
@@ -6661,6 +7243,15 @@
       <c r="J75">
         <v>1600</v>
       </c>
+      <c r="K75">
+        <v>1600</v>
+      </c>
+      <c r="L75">
+        <v>1600</v>
+      </c>
+      <c r="M75">
+        <v>1600</v>
+      </c>
       <c r="N75">
         <v>1600</v>
       </c>
@@ -6731,6 +7322,15 @@
         <v>0</v>
       </c>
       <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
         <v>0</v>
       </c>
       <c r="AP75">
@@ -6807,6 +7407,15 @@
       <c r="J76">
         <v>7008</v>
       </c>
+      <c r="K76">
+        <v>7050</v>
+      </c>
+      <c r="L76">
+        <v>7008</v>
+      </c>
+      <c r="M76">
+        <v>7008</v>
+      </c>
       <c r="N76">
         <v>7008</v>
       </c>
@@ -6878,6 +7487,15 @@
       </c>
       <c r="AL76">
         <v>3.75</v>
+      </c>
+      <c r="AM76">
+        <v>3.3125</v>
+      </c>
+      <c r="AN76">
+        <v>3.3125</v>
+      </c>
+      <c r="AO76">
+        <v>3.3125</v>
       </c>
       <c r="AP76">
         <v>3.75</v>
@@ -6936,13 +7554,13 @@
         <v>20217</v>
       </c>
       <c r="E77">
-        <v>18144</v>
+        <v>19521</v>
       </c>
       <c r="F77">
-        <v>18612</v>
+        <v>20217</v>
       </c>
       <c r="G77">
-        <v>18612</v>
+        <v>20217</v>
       </c>
       <c r="H77">
         <v>20217</v>
@@ -6953,6 +7571,15 @@
       <c r="J77">
         <v>20217</v>
       </c>
+      <c r="K77">
+        <v>19521</v>
+      </c>
+      <c r="L77">
+        <v>20217</v>
+      </c>
+      <c r="M77">
+        <v>20217</v>
+      </c>
       <c r="N77">
         <v>17736</v>
       </c>
@@ -7008,13 +7635,13 @@
         <v>7.3443877551020398</v>
       </c>
       <c r="AG77">
-        <v>7.18303571428571</v>
+        <v>7.0478316326530601</v>
       </c>
       <c r="AH77">
-        <v>7.3928571428571397</v>
+        <v>7.2576530612244898</v>
       </c>
       <c r="AI77">
-        <v>7.3928571428571397</v>
+        <v>7.2576530612244898</v>
       </c>
       <c r="AJ77">
         <v>7.2614795918367303</v>
@@ -7024,6 +7651,15 @@
       </c>
       <c r="AL77">
         <v>7.2614795918367303</v>
+      </c>
+      <c r="AM77">
+        <v>6.3297193877550999</v>
+      </c>
+      <c r="AN77">
+        <v>6.4815051020408099</v>
+      </c>
+      <c r="AO77">
+        <v>6.4815051020408099</v>
       </c>
       <c r="AP77">
         <v>7.7353316326530601</v>
@@ -7082,13 +7718,13 @@
         <v>33717</v>
       </c>
       <c r="E78">
-        <v>30511</v>
+        <v>33237</v>
       </c>
       <c r="F78">
-        <v>32228</v>
+        <v>35151</v>
       </c>
       <c r="G78">
-        <v>32228</v>
+        <v>35151</v>
       </c>
       <c r="H78">
         <v>33717</v>
@@ -7099,6 +7735,15 @@
       <c r="J78">
         <v>33717</v>
       </c>
+      <c r="K78">
+        <v>33237</v>
+      </c>
+      <c r="L78">
+        <v>35151</v>
+      </c>
+      <c r="M78">
+        <v>35151</v>
+      </c>
       <c r="N78">
         <v>26824</v>
       </c>
@@ -7154,13 +7799,13 @@
         <v>10.884778911564601</v>
       </c>
       <c r="AG78">
-        <v>10.924372874149601</v>
+        <v>10.6121917517006</v>
       </c>
       <c r="AH78">
-        <v>10.966039540816301</v>
+        <v>10.6442389455782</v>
       </c>
       <c r="AI78">
-        <v>10.966039540816301</v>
+        <v>10.6442389455782</v>
       </c>
       <c r="AJ78">
         <v>10.677455357142801</v>
@@ -7170,6 +7815,15 @@
       </c>
       <c r="AL78">
         <v>10.677455357142801</v>
+      </c>
+      <c r="AM78">
+        <v>9.6409970238095202</v>
+      </c>
+      <c r="AN78">
+        <v>9.6180378401360507</v>
+      </c>
+      <c r="AO78">
+        <v>9.6180378401360507</v>
       </c>
       <c r="AP78">
         <v>11.925860969387699</v>
@@ -7228,13 +7882,13 @@
         <v>29051</v>
       </c>
       <c r="E79">
-        <v>31462</v>
+        <v>31299</v>
       </c>
       <c r="F79">
-        <v>32663</v>
+        <v>32365</v>
       </c>
       <c r="G79">
-        <v>32663</v>
+        <v>32365</v>
       </c>
       <c r="H79">
         <v>29051</v>
@@ -7245,6 +7899,15 @@
       <c r="J79">
         <v>29051</v>
       </c>
+      <c r="K79">
+        <v>31299</v>
+      </c>
+      <c r="L79">
+        <v>32365</v>
+      </c>
+      <c r="M79">
+        <v>32365</v>
+      </c>
       <c r="N79">
         <v>25572</v>
       </c>
@@ -7300,13 +7963,13 @@
         <v>14.4864795918367</v>
       </c>
       <c r="AG79">
-        <v>14.711071428571399</v>
+        <v>14.2460884353741</v>
       </c>
       <c r="AH79">
-        <v>14.538443877551</v>
+        <v>14.0758248299319</v>
       </c>
       <c r="AI79">
-        <v>14.538443877551</v>
+        <v>14.0758248299319</v>
       </c>
       <c r="AJ79">
         <v>14.153988095238001</v>
@@ -7316,6 +7979,15 @@
       </c>
       <c r="AL79">
         <v>14.153988095238001</v>
+      </c>
+      <c r="AM79">
+        <v>13.0381547619047</v>
+      </c>
+      <c r="AN79">
+        <v>12.832057823129199</v>
+      </c>
+      <c r="AO79">
+        <v>12.832057823129199</v>
       </c>
       <c r="AP79">
         <v>16.2684098639455</v>
@@ -7374,13 +8046,13 @@
         <v>11709</v>
       </c>
       <c r="E80">
-        <v>16843</v>
+        <v>15679</v>
       </c>
       <c r="F80">
-        <v>16398</v>
+        <v>15065</v>
       </c>
       <c r="G80">
-        <v>16398</v>
+        <v>15065</v>
       </c>
       <c r="H80">
         <v>11709</v>
@@ -7391,6 +8063,15 @@
       <c r="J80">
         <v>11709</v>
       </c>
+      <c r="K80">
+        <v>15679</v>
+      </c>
+      <c r="L80">
+        <v>15065</v>
+      </c>
+      <c r="M80">
+        <v>15065</v>
+      </c>
       <c r="N80">
         <v>13742</v>
       </c>
@@ -7446,13 +8127,13 @@
         <v>18.1771736819727</v>
       </c>
       <c r="AG80">
-        <v>18.408726615646199</v>
+        <v>17.899768813775498</v>
       </c>
       <c r="AH80">
-        <v>18.161075680272099</v>
+        <v>17.663063350340099</v>
       </c>
       <c r="AI80">
-        <v>18.161075680272099</v>
+        <v>17.663063350340099</v>
       </c>
       <c r="AJ80">
         <v>17.733761160714199</v>
@@ -7462,6 +8143,15 @@
       </c>
       <c r="AL80">
         <v>17.733761160714199</v>
+      </c>
+      <c r="AM80">
+        <v>16.417793367346899</v>
+      </c>
+      <c r="AN80">
+        <v>16.153555484693801</v>
+      </c>
+      <c r="AO80">
+        <v>16.153555484693801</v>
       </c>
       <c r="AP80">
         <v>20.636559311224399</v>
@@ -7520,13 +8210,13 @@
         <v>2229</v>
       </c>
       <c r="E81">
-        <v>5959</v>
+        <v>4170</v>
       </c>
       <c r="F81">
-        <v>5218</v>
+        <v>3131</v>
       </c>
       <c r="G81">
-        <v>5218</v>
+        <v>3131</v>
       </c>
       <c r="H81">
         <v>2229</v>
@@ -7537,6 +8227,15 @@
       <c r="J81">
         <v>2229</v>
       </c>
+      <c r="K81">
+        <v>4170</v>
+      </c>
+      <c r="L81">
+        <v>3131</v>
+      </c>
+      <c r="M81">
+        <v>3131</v>
+      </c>
       <c r="N81">
         <v>3948</v>
       </c>
@@ -7592,13 +8291,13 @@
         <v>21.734589356575899</v>
       </c>
       <c r="AG81">
-        <v>21.8921804138322</v>
+        <v>21.4612368905895</v>
       </c>
       <c r="AH81">
-        <v>21.6803181689342</v>
+        <v>21.246253188775501</v>
       </c>
       <c r="AI81">
-        <v>21.6803181689342</v>
+        <v>21.246253188775501</v>
       </c>
       <c r="AJ81">
         <v>21.1819479875283</v>
@@ -7608,6 +8307,15 @@
       </c>
       <c r="AL81">
         <v>21.1819479875283</v>
+      </c>
+      <c r="AM81">
+        <v>19.725997378117899</v>
+      </c>
+      <c r="AN81">
+        <v>19.490943877551</v>
+      </c>
+      <c r="AO81">
+        <v>19.490943877551</v>
       </c>
       <c r="AP81">
         <v>24.6072332057823</v>
@@ -7666,13 +8374,13 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>779</v>
+        <v>408</v>
       </c>
       <c r="F82">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="G82">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7682,6 +8390,15 @@
       </c>
       <c r="J82">
         <v>0</v>
+      </c>
+      <c r="K82">
+        <v>408</v>
+      </c>
+      <c r="L82">
+        <v>47</v>
+      </c>
+      <c r="M82">
+        <v>47</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -7738,13 +8455,13 @@
         <v>24.7150948660714</v>
       </c>
       <c r="AG82">
-        <v>24.501726810515802</v>
+        <v>24.473704117063399</v>
       </c>
       <c r="AH82">
-        <v>24.3776320684523</v>
+        <v>24.361160714285699</v>
       </c>
       <c r="AI82">
-        <v>24.3776320684523</v>
+        <v>24.361160714285699</v>
       </c>
       <c r="AJ82">
         <v>23.9681547619047</v>
@@ -7754,6 +8471,15 @@
       </c>
       <c r="AL82">
         <v>23.9681547619047</v>
+      </c>
+      <c r="AM82">
+        <v>22.539933655753899</v>
+      </c>
+      <c r="AN82">
+        <v>22.404160466269801</v>
+      </c>
+      <c r="AO82">
+        <v>22.404160466269801</v>
       </c>
       <c r="AP82">
         <v>26.925725446428501</v>
@@ -7812,7 +8538,7 @@
         <v>3504</v>
       </c>
       <c r="E83">
-        <v>3342</v>
+        <v>3297</v>
       </c>
       <c r="F83">
         <v>3504</v>
@@ -7829,6 +8555,15 @@
       <c r="J83">
         <v>3504</v>
       </c>
+      <c r="K83">
+        <v>3297</v>
+      </c>
+      <c r="L83">
+        <v>3504</v>
+      </c>
+      <c r="M83">
+        <v>3504</v>
+      </c>
       <c r="N83">
         <v>3504</v>
       </c>
@@ -7884,13 +8619,13 @@
         <v>24.8</v>
       </c>
       <c r="AG83">
-        <v>24.624255952380899</v>
+        <v>24.735342261904702</v>
       </c>
       <c r="AH83">
-        <v>24.568452380952301</v>
+        <v>24.694642857142799</v>
       </c>
       <c r="AI83">
-        <v>24.568452380952301</v>
+        <v>24.694642857142799</v>
       </c>
       <c r="AJ83">
         <v>23.2369047619047</v>
@@ -7900,6 +8635,15 @@
       </c>
       <c r="AL83">
         <v>23.2369047619047</v>
+      </c>
+      <c r="AM83">
+        <v>22.2478918650793</v>
+      </c>
+      <c r="AN83">
+        <v>22.2091269841269</v>
+      </c>
+      <c r="AO83">
+        <v>22.2091269841269</v>
       </c>
       <c r="AP83">
         <v>25.137499999999999</v>
@@ -7975,6 +8719,15 @@
       <c r="J84">
         <v>18552</v>
       </c>
+      <c r="K84">
+        <v>21391</v>
+      </c>
+      <c r="L84">
+        <v>22488</v>
+      </c>
+      <c r="M84">
+        <v>22488</v>
+      </c>
       <c r="N84">
         <v>16944</v>
       </c>
@@ -8032,13 +8785,13 @@
         <v>48897</v>
       </c>
       <c r="E85">
-        <v>44023</v>
+        <v>47540</v>
       </c>
       <c r="F85">
-        <v>45593</v>
+        <v>49641</v>
       </c>
       <c r="G85">
-        <v>45593</v>
+        <v>49641</v>
       </c>
       <c r="H85">
         <v>52911</v>
@@ -8048,6 +8801,15 @@
       </c>
       <c r="J85">
         <v>52911</v>
+      </c>
+      <c r="K85">
+        <v>60796</v>
+      </c>
+      <c r="L85">
+        <v>64405</v>
+      </c>
+      <c r="M85">
+        <v>64405</v>
       </c>
       <c r="N85">
         <v>41958</v>
@@ -8106,13 +8868,13 @@
         <v>85048</v>
       </c>
       <c r="E86">
-        <v>76572</v>
+        <v>82794</v>
       </c>
       <c r="F86">
-        <v>80675</v>
+        <v>87053</v>
       </c>
       <c r="G86">
-        <v>80675</v>
+        <v>87053</v>
       </c>
       <c r="H86">
         <v>94884</v>
@@ -8122,6 +8884,15 @@
       </c>
       <c r="J86">
         <v>94884</v>
+      </c>
+      <c r="K86">
+        <v>108219</v>
+      </c>
+      <c r="L86">
+        <v>115108</v>
+      </c>
+      <c r="M86">
+        <v>115108</v>
       </c>
       <c r="N86">
         <v>66527</v>
@@ -8180,13 +8951,13 @@
         <v>79524</v>
       </c>
       <c r="E87">
-        <v>81089</v>
+        <v>83024</v>
       </c>
       <c r="F87">
-        <v>83887</v>
+        <v>85327</v>
       </c>
       <c r="G87">
-        <v>83887</v>
+        <v>85327</v>
       </c>
       <c r="H87">
         <v>94502</v>
@@ -8196,6 +8967,15 @@
       </c>
       <c r="J87">
         <v>94502</v>
+      </c>
+      <c r="K87">
+        <v>116451</v>
+      </c>
+      <c r="L87">
+        <v>121205</v>
+      </c>
+      <c r="M87">
+        <v>121205</v>
       </c>
       <c r="N87">
         <v>62286</v>
@@ -8254,13 +9034,13 @@
         <v>34633</v>
       </c>
       <c r="E88">
-        <v>47749</v>
+        <v>45146</v>
       </c>
       <c r="F88">
-        <v>45966</v>
+        <v>42675</v>
       </c>
       <c r="G88">
-        <v>45966</v>
+        <v>42675</v>
       </c>
       <c r="H88">
         <v>55213</v>
@@ -8270,6 +9050,15 @@
       </c>
       <c r="J88">
         <v>55213</v>
+      </c>
+      <c r="K88">
+        <v>75606</v>
+      </c>
+      <c r="L88">
+        <v>73752</v>
+      </c>
+      <c r="M88">
+        <v>73752</v>
       </c>
       <c r="N88">
         <v>35385</v>
@@ -8328,13 +9117,13 @@
         <v>7652</v>
       </c>
       <c r="E89">
-        <v>18012</v>
+        <v>13700</v>
       </c>
       <c r="F89">
-        <v>15618</v>
+        <v>10740</v>
       </c>
       <c r="G89">
-        <v>15618</v>
+        <v>10740</v>
       </c>
       <c r="H89">
         <v>22982</v>
@@ -8344,6 +9133,15 @@
       </c>
       <c r="J89">
         <v>22982</v>
+      </c>
+      <c r="K89">
+        <v>31897</v>
+      </c>
+      <c r="L89">
+        <v>28126</v>
+      </c>
+      <c r="M89">
+        <v>28126</v>
       </c>
       <c r="N89">
         <v>9526</v>
@@ -8402,13 +9200,13 @@
         <v>282</v>
       </c>
       <c r="E90">
-        <v>4478</v>
+        <v>1800</v>
       </c>
       <c r="F90">
-        <v>3338</v>
+        <v>656</v>
       </c>
       <c r="G90">
-        <v>3338</v>
+        <v>656</v>
       </c>
       <c r="H90">
         <v>4555</v>
@@ -8418,6 +9216,15 @@
       </c>
       <c r="J90">
         <v>4555</v>
+      </c>
+      <c r="K90">
+        <v>8198</v>
+      </c>
+      <c r="L90">
+        <v>6053</v>
+      </c>
+      <c r="M90">
+        <v>6053</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -8476,13 +9283,13 @@
         <v>5760</v>
       </c>
       <c r="E91">
-        <v>5780</v>
+        <v>5217</v>
       </c>
       <c r="F91">
-        <v>6187</v>
+        <v>5760</v>
       </c>
       <c r="G91">
-        <v>6187</v>
+        <v>5760</v>
       </c>
       <c r="H91">
         <v>5760</v>
@@ -8492,6 +9299,15 @@
       </c>
       <c r="J91">
         <v>5760</v>
+      </c>
+      <c r="K91">
+        <v>4205</v>
+      </c>
+      <c r="L91">
+        <v>4254</v>
+      </c>
+      <c r="M91">
+        <v>4254</v>
       </c>
       <c r="N91">
         <v>5760</v>
@@ -8550,7 +9366,7 @@
         <v>28272</v>
       </c>
       <c r="E92">
-        <v>26648</v>
+        <v>26614</v>
       </c>
       <c r="F92">
         <v>28272</v>
@@ -8566,6 +9382,15 @@
       </c>
       <c r="J92">
         <v>28776</v>
+      </c>
+      <c r="K92">
+        <v>24881</v>
+      </c>
+      <c r="L92">
+        <v>26360</v>
+      </c>
+      <c r="M92">
+        <v>26360</v>
       </c>
       <c r="N92">
         <v>28272</v>
@@ -8624,13 +9449,13 @@
         <v>83645</v>
       </c>
       <c r="E93">
-        <v>75992</v>
+        <v>79699</v>
       </c>
       <c r="F93">
-        <v>80418</v>
+        <v>84879</v>
       </c>
       <c r="G93">
-        <v>80418</v>
+        <v>84879</v>
       </c>
       <c r="H93">
         <v>81810</v>
@@ -8640,6 +9465,15 @@
       </c>
       <c r="J93">
         <v>81810</v>
+      </c>
+      <c r="K93">
+        <v>78140</v>
+      </c>
+      <c r="L93">
+        <v>82239</v>
+      </c>
+      <c r="M93">
+        <v>82239</v>
       </c>
       <c r="N93">
         <v>72306</v>
@@ -8698,13 +9532,13 @@
         <v>142242</v>
       </c>
       <c r="E94">
-        <v>126916</v>
+        <v>137068</v>
       </c>
       <c r="F94">
-        <v>132598</v>
+        <v>143699</v>
       </c>
       <c r="G94">
-        <v>132598</v>
+        <v>143699</v>
       </c>
       <c r="H94">
         <v>137313</v>
@@ -8714,6 +9548,15 @@
       </c>
       <c r="J94">
         <v>137313</v>
+      </c>
+      <c r="K94">
+        <v>132092</v>
+      </c>
+      <c r="L94">
+        <v>136349</v>
+      </c>
+      <c r="M94">
+        <v>136349</v>
       </c>
       <c r="N94">
         <v>109339</v>
@@ -8772,13 +9615,13 @@
         <v>127400</v>
       </c>
       <c r="E95">
-        <v>119961</v>
+        <v>125264</v>
       </c>
       <c r="F95">
-        <v>120623</v>
+        <v>125879</v>
       </c>
       <c r="G95">
-        <v>120623</v>
+        <v>125879</v>
       </c>
       <c r="H95">
         <v>127317</v>
@@ -8788,6 +9631,15 @@
       </c>
       <c r="J95">
         <v>127317</v>
+      </c>
+      <c r="K95">
+        <v>129547</v>
+      </c>
+      <c r="L95">
+        <v>129422</v>
+      </c>
+      <c r="M95">
+        <v>129422</v>
       </c>
       <c r="N95">
         <v>102900</v>
@@ -8846,13 +9698,13 @@
         <v>51308</v>
       </c>
       <c r="E96">
-        <v>55235</v>
+        <v>53500</v>
       </c>
       <c r="F96">
-        <v>50155</v>
+        <v>47478</v>
       </c>
       <c r="G96">
-        <v>50155</v>
+        <v>47478</v>
       </c>
       <c r="H96">
         <v>66602</v>
@@ -8862,6 +9714,15 @@
       </c>
       <c r="J96">
         <v>66602</v>
+      </c>
+      <c r="K96">
+        <v>69523</v>
+      </c>
+      <c r="L96">
+        <v>64587</v>
+      </c>
+      <c r="M96">
+        <v>64587</v>
       </c>
       <c r="N96">
         <v>55892</v>
@@ -8920,13 +9781,13 @@
         <v>8745</v>
       </c>
       <c r="E97">
-        <v>14201</v>
+        <v>10859</v>
       </c>
       <c r="F97">
-        <v>11010</v>
+        <v>7179</v>
       </c>
       <c r="G97">
-        <v>11010</v>
+        <v>7179</v>
       </c>
       <c r="H97">
         <v>21208</v>
@@ -8936,6 +9797,15 @@
       </c>
       <c r="J97">
         <v>21208</v>
+      </c>
+      <c r="K97">
+        <v>19761</v>
+      </c>
+      <c r="L97">
+        <v>16012</v>
+      </c>
+      <c r="M97">
+        <v>16012</v>
       </c>
       <c r="N97">
         <v>15211</v>
@@ -8994,13 +9864,13 @@
         <v>926</v>
       </c>
       <c r="E98">
-        <v>1984</v>
+        <v>1013</v>
       </c>
       <c r="F98">
-        <v>1009</v>
+        <v>182</v>
       </c>
       <c r="G98">
-        <v>1009</v>
+        <v>182</v>
       </c>
       <c r="H98">
         <v>3420</v>
@@ -9010,6 +9880,15 @@
       </c>
       <c r="J98">
         <v>3420</v>
+      </c>
+      <c r="K98">
+        <v>2388</v>
+      </c>
+      <c r="L98">
+        <v>1051</v>
+      </c>
+      <c r="M98">
+        <v>1051</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -9068,13 +9947,13 @@
         <v>6924</v>
       </c>
       <c r="E99">
-        <v>5782</v>
+        <v>6007</v>
       </c>
       <c r="F99">
-        <v>6368</v>
+        <v>6768</v>
       </c>
       <c r="G99">
-        <v>6368</v>
+        <v>6768</v>
       </c>
       <c r="H99">
         <v>5838</v>
@@ -9084,6 +9963,15 @@
       </c>
       <c r="J99">
         <v>5838</v>
+      </c>
+      <c r="K99">
+        <v>2426</v>
+      </c>
+      <c r="L99">
+        <v>2592</v>
+      </c>
+      <c r="M99">
+        <v>2592</v>
       </c>
       <c r="N99">
         <v>5600</v>
@@ -9142,13 +10030,13 @@
         <v>33024</v>
       </c>
       <c r="E100">
-        <v>29264</v>
+        <v>30928</v>
       </c>
       <c r="F100">
-        <v>31104</v>
+        <v>33024</v>
       </c>
       <c r="G100">
-        <v>31104</v>
+        <v>33024</v>
       </c>
       <c r="H100">
         <v>20592</v>
@@ -9158,6 +10046,15 @@
       </c>
       <c r="J100">
         <v>20592</v>
+      </c>
+      <c r="K100">
+        <v>15932</v>
+      </c>
+      <c r="L100">
+        <v>17152</v>
+      </c>
+      <c r="M100">
+        <v>17152</v>
       </c>
       <c r="N100">
         <v>27232</v>
@@ -9216,13 +10113,13 @@
         <v>95073</v>
       </c>
       <c r="E101">
-        <v>84220</v>
+        <v>90740</v>
       </c>
       <c r="F101">
-        <v>88402</v>
+        <v>95547</v>
       </c>
       <c r="G101">
-        <v>88402</v>
+        <v>95547</v>
       </c>
       <c r="H101">
         <v>62637</v>
@@ -9232,6 +10129,15 @@
       </c>
       <c r="J101">
         <v>62637</v>
+      </c>
+      <c r="K101">
+        <v>59805</v>
+      </c>
+      <c r="L101">
+        <v>62082</v>
+      </c>
+      <c r="M101">
+        <v>62082</v>
       </c>
       <c r="N101">
         <v>73649</v>
@@ -9290,13 +10196,13 @@
         <v>145792</v>
       </c>
       <c r="E102">
-        <v>133764</v>
+        <v>143625</v>
       </c>
       <c r="F102">
-        <v>136148</v>
+        <v>146370</v>
       </c>
       <c r="G102">
-        <v>136148</v>
+        <v>146370</v>
       </c>
       <c r="H102">
         <v>101758</v>
@@ -9306,6 +10212,15 @@
       </c>
       <c r="J102">
         <v>101758</v>
+      </c>
+      <c r="K102">
+        <v>102561</v>
+      </c>
+      <c r="L102">
+        <v>102475</v>
+      </c>
+      <c r="M102">
+        <v>102475</v>
       </c>
       <c r="N102">
         <v>111388</v>
@@ -9364,13 +10279,13 @@
         <v>117472</v>
       </c>
       <c r="E103">
-        <v>113614</v>
+        <v>117624</v>
       </c>
       <c r="F103">
-        <v>109754</v>
+        <v>113557</v>
       </c>
       <c r="G103">
-        <v>109754</v>
+        <v>113557</v>
       </c>
       <c r="H103">
         <v>88568</v>
@@ -9380,6 +10295,15 @@
       </c>
       <c r="J103">
         <v>88568</v>
+      </c>
+      <c r="K103">
+        <v>94738</v>
+      </c>
+      <c r="L103">
+        <v>91095</v>
+      </c>
+      <c r="M103">
+        <v>91095</v>
       </c>
       <c r="N103">
         <v>107537</v>
@@ -9438,13 +10362,13 @@
         <v>48218</v>
       </c>
       <c r="E104">
-        <v>48942</v>
+        <v>48787</v>
       </c>
       <c r="F104">
-        <v>42911</v>
+        <v>42429</v>
       </c>
       <c r="G104">
-        <v>42911</v>
+        <v>42429</v>
       </c>
       <c r="H104">
         <v>47275</v>
@@ -9454,6 +10378,15 @@
       </c>
       <c r="J104">
         <v>47275</v>
+      </c>
+      <c r="K104">
+        <v>53444</v>
+      </c>
+      <c r="L104">
+        <v>49817</v>
+      </c>
+      <c r="M104">
+        <v>49817</v>
       </c>
       <c r="N104">
         <v>59153</v>
@@ -9512,13 +10445,13 @@
         <v>7839</v>
       </c>
       <c r="E105">
-        <v>12682</v>
+        <v>9774</v>
       </c>
       <c r="F105">
-        <v>9872</v>
+        <v>6353</v>
       </c>
       <c r="G105">
-        <v>9872</v>
+        <v>6353</v>
       </c>
       <c r="H105">
         <v>17318</v>
@@ -9528,6 +10461,15 @@
       </c>
       <c r="J105">
         <v>17318</v>
+      </c>
+      <c r="K105">
+        <v>17377</v>
+      </c>
+      <c r="L105">
+        <v>15100</v>
+      </c>
+      <c r="M105">
+        <v>15100</v>
       </c>
       <c r="N105">
         <v>16600</v>
@@ -9586,13 +10528,13 @@
         <v>430</v>
       </c>
       <c r="E106">
-        <v>2384</v>
+        <v>831</v>
       </c>
       <c r="F106">
-        <v>1670</v>
+        <v>44</v>
       </c>
       <c r="G106">
-        <v>1670</v>
+        <v>44</v>
       </c>
       <c r="H106">
         <v>2924</v>
@@ -9602,6 +10544,15 @@
       </c>
       <c r="J106">
         <v>2924</v>
+      </c>
+      <c r="K106">
+        <v>2902</v>
+      </c>
+      <c r="L106">
+        <v>1975</v>
+      </c>
+      <c r="M106">
+        <v>1975</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -9660,13 +10611,13 @@
         <v>2300</v>
       </c>
       <c r="E107">
-        <v>2657</v>
+        <v>2084</v>
       </c>
       <c r="F107">
-        <v>2858</v>
+        <v>2260</v>
       </c>
       <c r="G107">
-        <v>2858</v>
+        <v>2260</v>
       </c>
       <c r="H107">
         <v>3100</v>
@@ -9676,6 +10627,15 @@
       </c>
       <c r="J107">
         <v>3100</v>
+      </c>
+      <c r="K107">
+        <v>592</v>
+      </c>
+      <c r="L107">
+        <v>452</v>
+      </c>
+      <c r="M107">
+        <v>452</v>
       </c>
       <c r="N107">
         <v>3060</v>
@@ -9734,13 +10694,13 @@
         <v>10896</v>
       </c>
       <c r="E108">
-        <v>11877</v>
+        <v>10178</v>
       </c>
       <c r="F108">
-        <v>12816</v>
+        <v>10896</v>
       </c>
       <c r="G108">
-        <v>12816</v>
+        <v>10896</v>
       </c>
       <c r="H108">
         <v>10176</v>
@@ -9750,6 +10710,15 @@
       </c>
       <c r="J108">
         <v>10176</v>
+      </c>
+      <c r="K108">
+        <v>3477</v>
+      </c>
+      <c r="L108">
+        <v>3696</v>
+      </c>
+      <c r="M108">
+        <v>3696</v>
       </c>
       <c r="N108">
         <v>14928</v>
@@ -9808,13 +10777,13 @@
         <v>30654</v>
       </c>
       <c r="E109">
-        <v>35309</v>
+        <v>30030</v>
       </c>
       <c r="F109">
-        <v>36889</v>
+        <v>31164</v>
       </c>
       <c r="G109">
-        <v>36889</v>
+        <v>31164</v>
       </c>
       <c r="H109">
         <v>28572</v>
@@ -9824,6 +10793,15 @@
       </c>
       <c r="J109">
         <v>28572</v>
+      </c>
+      <c r="K109">
+        <v>14670</v>
+      </c>
+      <c r="L109">
+        <v>15208</v>
+      </c>
+      <c r="M109">
+        <v>15208</v>
       </c>
       <c r="N109">
         <v>41717</v>
@@ -9882,13 +10860,13 @@
         <v>46163</v>
       </c>
       <c r="E110">
-        <v>54722</v>
+        <v>46371</v>
       </c>
       <c r="F110">
-        <v>55003</v>
+        <v>46221</v>
       </c>
       <c r="G110">
-        <v>55003</v>
+        <v>46221</v>
       </c>
       <c r="H110">
         <v>42250</v>
@@ -9898,6 +10876,15 @@
       </c>
       <c r="J110">
         <v>42250</v>
+      </c>
+      <c r="K110">
+        <v>26443</v>
+      </c>
+      <c r="L110">
+        <v>26332</v>
+      </c>
+      <c r="M110">
+        <v>26332</v>
       </c>
       <c r="N110">
         <v>64902</v>
@@ -9956,13 +10943,13 @@
         <v>37428</v>
       </c>
       <c r="E111">
-        <v>43675</v>
+        <v>34816</v>
       </c>
       <c r="F111">
-        <v>40847</v>
+        <v>32231</v>
       </c>
       <c r="G111">
-        <v>40847</v>
+        <v>32231</v>
       </c>
       <c r="H111">
         <v>33400</v>
@@ -9972,6 +10959,15 @@
       </c>
       <c r="J111">
         <v>33400</v>
+      </c>
+      <c r="K111">
+        <v>23961</v>
+      </c>
+      <c r="L111">
+        <v>22099</v>
+      </c>
+      <c r="M111">
+        <v>22099</v>
       </c>
       <c r="N111">
         <v>65368</v>
@@ -10030,13 +11026,13 @@
         <v>17742</v>
       </c>
       <c r="E112">
-        <v>18753</v>
+        <v>13663</v>
       </c>
       <c r="F112">
-        <v>16007</v>
+        <v>11691</v>
       </c>
       <c r="G112">
-        <v>16007</v>
+        <v>11691</v>
       </c>
       <c r="H112">
         <v>20257</v>
@@ -10046,6 +11042,15 @@
       </c>
       <c r="J112">
         <v>20257</v>
+      </c>
+      <c r="K112">
+        <v>15891</v>
+      </c>
+      <c r="L112">
+        <v>14905</v>
+      </c>
+      <c r="M112">
+        <v>14905</v>
       </c>
       <c r="N112">
         <v>37880</v>
@@ -10104,13 +11109,13 @@
         <v>1789</v>
       </c>
       <c r="E113">
-        <v>4941</v>
+        <v>2014</v>
       </c>
       <c r="F113">
-        <v>3797</v>
+        <v>1135</v>
       </c>
       <c r="G113">
-        <v>3797</v>
+        <v>1135</v>
       </c>
       <c r="H113">
         <v>6202</v>
@@ -10120,6 +11125,15 @@
       </c>
       <c r="J113">
         <v>6202</v>
+      </c>
+      <c r="K113">
+        <v>6867</v>
+      </c>
+      <c r="L113">
+        <v>6329</v>
+      </c>
+      <c r="M113">
+        <v>6329</v>
       </c>
       <c r="N113">
         <v>11026</v>
@@ -10178,13 +11192,13 @@
         <v>30</v>
       </c>
       <c r="E114">
-        <v>1014</v>
+        <v>192</v>
       </c>
       <c r="F114">
-        <v>735</v>
+        <v>30</v>
       </c>
       <c r="G114">
-        <v>735</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>744</v>
@@ -10194,6 +11208,15 @@
       </c>
       <c r="J114">
         <v>744</v>
+      </c>
+      <c r="K114">
+        <v>1219</v>
+      </c>
+      <c r="L114">
+        <v>921</v>
+      </c>
+      <c r="M114">
+        <v>921</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -10252,13 +11275,13 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="F115">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>368</v>
@@ -10268,6 +11291,9 @@
       </c>
       <c r="J115">
         <v>368</v>
+      </c>
+      <c r="K115">
+        <v>67</v>
       </c>
       <c r="N115">
         <v>368</v>
@@ -10326,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -10342,6 +11368,9 @@
       </c>
       <c r="J116">
         <v>3120</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
       </c>
       <c r="N116">
         <v>1760</v>
@@ -10400,13 +11429,13 @@
         <v>780</v>
       </c>
       <c r="E117">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="F117">
-        <v>712</v>
+        <v>780</v>
       </c>
       <c r="G117">
-        <v>712</v>
+        <v>780</v>
       </c>
       <c r="H117">
         <v>7071</v>
@@ -10474,13 +11503,13 @@
         <v>2547</v>
       </c>
       <c r="E118">
-        <v>2215</v>
+        <v>2382</v>
       </c>
       <c r="F118">
-        <v>2216</v>
+        <v>2358</v>
       </c>
       <c r="G118">
-        <v>2216</v>
+        <v>2358</v>
       </c>
       <c r="H118">
         <v>7676</v>
@@ -10542,13 +11571,13 @@
         <v>3574</v>
       </c>
       <c r="E119">
-        <v>2785</v>
+        <v>2854</v>
       </c>
       <c r="F119">
-        <v>2595</v>
+        <v>2627</v>
       </c>
       <c r="G119">
-        <v>2595</v>
+        <v>2627</v>
       </c>
       <c r="H119">
         <v>4601</v>
@@ -10607,13 +11636,13 @@
         <v>2641</v>
       </c>
       <c r="E120">
-        <v>1239</v>
+        <v>1873</v>
       </c>
       <c r="F120">
-        <v>1014</v>
+        <v>1743</v>
       </c>
       <c r="G120">
-        <v>1014</v>
+        <v>1743</v>
       </c>
       <c r="H120">
         <v>2312</v>
@@ -10672,13 +11701,13 @@
         <v>40</v>
       </c>
       <c r="E121">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="F121">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="G121">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H121">
         <v>130</v>
@@ -11355,13 +12384,13 @@
         <v>20.809310210171201</v>
       </c>
       <c r="E143">
-        <v>20.897460618465701</v>
+        <v>20.550572957885901</v>
       </c>
       <c r="F143">
-        <v>20.707234854816601</v>
+        <v>20.3650561235849</v>
       </c>
       <c r="G143">
-        <v>20.707234854816601</v>
+        <v>20.3650561235849</v>
       </c>
       <c r="H143">
         <v>20.236450123428099</v>
@@ -11371,6 +12400,15 @@
       </c>
       <c r="J143">
         <v>20.236450123428099</v>
+      </c>
+      <c r="K143">
+        <v>18.870134401125298</v>
+      </c>
+      <c r="L143">
+        <v>18.6607261142697</v>
+      </c>
+      <c r="M143">
+        <v>18.6607261142697</v>
       </c>
       <c r="N143">
         <v>23.239373002832</v>
@@ -11610,6 +12648,15 @@
       <c r="J151">
         <v>256</v>
       </c>
+      <c r="K151">
+        <v>256</v>
+      </c>
+      <c r="L151">
+        <v>256</v>
+      </c>
+      <c r="M151">
+        <v>256</v>
+      </c>
       <c r="N151">
         <v>256</v>
       </c>
@@ -11680,6 +12727,15 @@
         <v>0</v>
       </c>
       <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
+      <c r="AO151">
         <v>0</v>
       </c>
       <c r="AP151">
@@ -11756,6 +12812,15 @@
       <c r="J152">
         <v>576</v>
       </c>
+      <c r="K152">
+        <v>576</v>
+      </c>
+      <c r="L152">
+        <v>576</v>
+      </c>
+      <c r="M152">
+        <v>576</v>
+      </c>
       <c r="N152">
         <v>576</v>
       </c>
@@ -11827,6 +12892,15 @@
       </c>
       <c r="AL152">
         <v>13.5</v>
+      </c>
+      <c r="AM152">
+        <v>12.25</v>
+      </c>
+      <c r="AN152">
+        <v>12.25</v>
+      </c>
+      <c r="AO152">
+        <v>12.25</v>
       </c>
       <c r="AP152">
         <v>13.5</v>
@@ -11902,6 +12976,15 @@
       <c r="J153">
         <v>576</v>
       </c>
+      <c r="K153">
+        <v>576</v>
+      </c>
+      <c r="L153">
+        <v>576</v>
+      </c>
+      <c r="M153">
+        <v>576</v>
+      </c>
       <c r="N153">
         <v>576</v>
       </c>
@@ -11957,13 +13040,13 @@
         <v>26.3386479591836</v>
       </c>
       <c r="AG153">
-        <v>25.821428571428498</v>
+        <v>25.355867346938702</v>
       </c>
       <c r="AH153">
-        <v>26.525510204081598</v>
+        <v>26.059948979591798</v>
       </c>
       <c r="AI153">
-        <v>26.514030612244898</v>
+        <v>26.048469387755102</v>
       </c>
       <c r="AJ153">
         <v>26.125</v>
@@ -11973,6 +13056,15 @@
       </c>
       <c r="AL153">
         <v>26.125</v>
+      </c>
+      <c r="AM153">
+        <v>23.305484693877499</v>
+      </c>
+      <c r="AN153">
+        <v>23.84375</v>
+      </c>
+      <c r="AO153">
+        <v>23.8322704081632</v>
       </c>
       <c r="AP153">
         <v>27.623724489795901</v>
@@ -12048,6 +13140,15 @@
       <c r="J154">
         <v>192</v>
       </c>
+      <c r="K154">
+        <v>192</v>
+      </c>
+      <c r="L154">
+        <v>192</v>
+      </c>
+      <c r="M154">
+        <v>192</v>
+      </c>
       <c r="N154">
         <v>192</v>
       </c>
@@ -12103,13 +13204,13 @@
         <v>38.8231292517006</v>
       </c>
       <c r="AG154">
-        <v>38.959555697278901</v>
+        <v>37.894504676870703</v>
       </c>
       <c r="AH154">
-        <v>39.172991071428498</v>
+        <v>38.070206207482897</v>
       </c>
       <c r="AI154">
-        <v>39.138552295918302</v>
+        <v>38.035767431972701</v>
       </c>
       <c r="AJ154">
         <v>38.283960459183596</v>
@@ -12119,6 +13220,15 @@
       </c>
       <c r="AL154">
         <v>38.283960459183596</v>
+      </c>
+      <c r="AM154">
+        <v>35.1223958333333</v>
+      </c>
+      <c r="AN154">
+        <v>35.137861394557802</v>
+      </c>
+      <c r="AO154">
+        <v>35.103422619047599</v>
       </c>
       <c r="AP154">
         <v>42.2324617346938</v>
@@ -12194,6 +13304,15 @@
       <c r="J155">
         <v>0</v>
       </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
       <c r="N155">
         <v>0</v>
       </c>
@@ -12249,13 +13368,13 @@
         <v>51.286734693877499</v>
       </c>
       <c r="AG155">
-        <v>52.039073129251697</v>
+        <v>50.459056122448899</v>
       </c>
       <c r="AH155">
-        <v>51.620918367346903</v>
+        <v>50.038307823129202</v>
       </c>
       <c r="AI155">
-        <v>51.552040816326503</v>
+        <v>49.969430272108802</v>
       </c>
       <c r="AJ155">
         <v>50.419685374149601</v>
@@ -12265,6 +13384,15 @@
       </c>
       <c r="AL155">
         <v>50.419685374149601</v>
+      </c>
+      <c r="AM155">
+        <v>47.007653061224403</v>
+      </c>
+      <c r="AN155">
+        <v>46.481207482993199</v>
+      </c>
+      <c r="AO155">
+        <v>46.4123299319727</v>
       </c>
       <c r="AP155">
         <v>57.095620748299297</v>
@@ -12340,6 +13468,15 @@
       <c r="J156">
         <v>1152</v>
       </c>
+      <c r="K156">
+        <v>1152</v>
+      </c>
+      <c r="L156">
+        <v>1152</v>
+      </c>
+      <c r="M156">
+        <v>1152</v>
+      </c>
       <c r="N156">
         <v>1152</v>
       </c>
@@ -12395,13 +13532,13 @@
         <v>63.754132121598602</v>
       </c>
       <c r="AG156">
-        <v>64.575130208333306</v>
+        <v>62.836025191326499</v>
       </c>
       <c r="AH156">
-        <v>63.957403273809497</v>
+        <v>62.242293792517003</v>
       </c>
       <c r="AI156">
-        <v>63.842607355442098</v>
+        <v>62.127497874149597</v>
       </c>
       <c r="AJ156">
         <v>62.614397321428498</v>
@@ -12411,6 +13548,15 @@
       </c>
       <c r="AL156">
         <v>62.614397321428498</v>
+      </c>
+      <c r="AM156">
+        <v>58.601809630101997</v>
+      </c>
+      <c r="AN156">
+        <v>57.933992346938702</v>
+      </c>
+      <c r="AO156">
+        <v>57.819196428571402</v>
       </c>
       <c r="AP156">
         <v>71.732023278061206</v>
@@ -12486,6 +13632,15 @@
       <c r="J157">
         <v>2880</v>
       </c>
+      <c r="K157">
+        <v>3216</v>
+      </c>
+      <c r="L157">
+        <v>2496</v>
+      </c>
+      <c r="M157">
+        <v>2880</v>
+      </c>
       <c r="N157">
         <v>2880</v>
       </c>
@@ -12541,13 +13696,13 @@
         <v>75.453877905328795</v>
       </c>
       <c r="AG157">
-        <v>76.073818381519203</v>
+        <v>74.5849968112244</v>
       </c>
       <c r="AH157">
-        <v>75.593395691609899</v>
+        <v>74.085166879251702</v>
       </c>
       <c r="AI157">
-        <v>75.421201814058904</v>
+        <v>73.912973001700607</v>
       </c>
       <c r="AJ157">
         <v>74.073164682539598</v>
@@ -12557,6 +13712,15 @@
       </c>
       <c r="AL157">
         <v>74.073164682539598</v>
+      </c>
+      <c r="AM157">
+        <v>69.647532242063406</v>
+      </c>
+      <c r="AN157">
+        <v>69.105389030612201</v>
+      </c>
+      <c r="AO157">
+        <v>68.933195153061206</v>
       </c>
       <c r="AP157">
         <v>84.73046875</v>
@@ -12632,6 +13796,15 @@
       <c r="J158">
         <v>2400</v>
       </c>
+      <c r="K158">
+        <v>2394</v>
+      </c>
+      <c r="L158">
+        <v>2496</v>
+      </c>
+      <c r="M158">
+        <v>2400</v>
+      </c>
       <c r="N158">
         <v>2400</v>
       </c>
@@ -12687,13 +13860,13 @@
         <v>84.900902157738102</v>
       </c>
       <c r="AG158">
-        <v>84.347101314484107</v>
+        <v>84.137977430555495</v>
       </c>
       <c r="AH158">
-        <v>84.167550223214207</v>
+        <v>83.989862351190396</v>
       </c>
       <c r="AI158">
-        <v>83.926478794642804</v>
+        <v>83.748790922618994</v>
       </c>
       <c r="AJ158">
         <v>83.058221726190396</v>
@@ -12703,6 +13876,15 @@
       </c>
       <c r="AL158">
         <v>83.058221726190396</v>
+      </c>
+      <c r="AM158">
+        <v>78.677179439484107</v>
+      </c>
+      <c r="AN158">
+        <v>78.480716765872998</v>
+      </c>
+      <c r="AO158">
+        <v>78.239645337301496</v>
       </c>
       <c r="AP158">
         <v>92.100074404761898</v>
@@ -12778,6 +13960,15 @@
       <c r="J159">
         <v>576</v>
       </c>
+      <c r="K159">
+        <v>288</v>
+      </c>
+      <c r="L159">
+        <v>864</v>
+      </c>
+      <c r="M159">
+        <v>576</v>
+      </c>
       <c r="N159">
         <v>576</v>
       </c>
@@ -12833,13 +14024,13 @@
         <v>84.6666666666666</v>
       </c>
       <c r="AG159">
-        <v>84.240302579364993</v>
+        <v>84.452728174603095</v>
       </c>
       <c r="AH159">
-        <v>84.401785714285694</v>
+        <v>84.663690476190396</v>
       </c>
       <c r="AI159">
-        <v>84.080357142857096</v>
+        <v>84.342261904761898</v>
       </c>
       <c r="AJ159">
         <v>80.4583333333333</v>
@@ -12849,6 +14040,15 @@
       </c>
       <c r="AL159">
         <v>80.4583333333333</v>
+      </c>
+      <c r="AM159">
+        <v>77.265476190476093</v>
+      </c>
+      <c r="AN159">
+        <v>77.498015873015802</v>
+      </c>
+      <c r="AO159">
+        <v>77.176587301587304</v>
       </c>
       <c r="AP159">
         <v>86.127976190476105</v>
@@ -12924,6 +14124,15 @@
       <c r="J160">
         <v>0</v>
       </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
       <c r="N160">
         <v>0</v>
       </c>
@@ -12981,13 +14190,13 @@
         <v>3396</v>
       </c>
       <c r="E161">
-        <v>3120</v>
+        <v>3396</v>
       </c>
       <c r="F161">
-        <v>3120</v>
+        <v>3396</v>
       </c>
       <c r="G161">
-        <v>3120</v>
+        <v>3396</v>
       </c>
       <c r="H161">
         <v>3396</v>
@@ -12996,6 +14205,15 @@
         <v>3396</v>
       </c>
       <c r="J161">
+        <v>3396</v>
+      </c>
+      <c r="K161">
+        <v>3396</v>
+      </c>
+      <c r="L161">
+        <v>3396</v>
+      </c>
+      <c r="M161">
         <v>3396</v>
       </c>
       <c r="N161">
@@ -13055,13 +14273,13 @@
         <v>8811</v>
       </c>
       <c r="E162">
-        <v>9567</v>
+        <v>10326</v>
       </c>
       <c r="F162">
-        <v>6492</v>
+        <v>7047</v>
       </c>
       <c r="G162">
-        <v>8052</v>
+        <v>8811</v>
       </c>
       <c r="H162">
         <v>8811</v>
@@ -13070,6 +14288,15 @@
         <v>7047</v>
       </c>
       <c r="J162">
+        <v>8811</v>
+      </c>
+      <c r="K162">
+        <v>10326</v>
+      </c>
+      <c r="L162">
+        <v>7047</v>
+      </c>
+      <c r="M162">
         <v>8811</v>
       </c>
       <c r="N162">
@@ -13129,13 +14356,13 @@
         <v>6378</v>
       </c>
       <c r="E163">
-        <v>4986</v>
+        <v>5286</v>
       </c>
       <c r="F163">
-        <v>6732</v>
+        <v>7302</v>
       </c>
       <c r="G163">
-        <v>5940</v>
+        <v>6378</v>
       </c>
       <c r="H163">
         <v>6378</v>
@@ -13144,6 +14371,15 @@
         <v>7302</v>
       </c>
       <c r="J163">
+        <v>6378</v>
+      </c>
+      <c r="K163">
+        <v>5286</v>
+      </c>
+      <c r="L163">
+        <v>7302</v>
+      </c>
+      <c r="M163">
         <v>6378</v>
       </c>
       <c r="N163">
@@ -13203,13 +14439,13 @@
         <v>1632</v>
       </c>
       <c r="E164">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="F164">
-        <v>2268</v>
+        <v>2472</v>
       </c>
       <c r="G164">
-        <v>1500</v>
+        <v>1632</v>
       </c>
       <c r="H164">
         <v>1632</v>
@@ -13218,6 +14454,15 @@
         <v>2472</v>
       </c>
       <c r="J164">
+        <v>1632</v>
+      </c>
+      <c r="K164">
+        <v>513</v>
+      </c>
+      <c r="L164">
+        <v>2472</v>
+      </c>
+      <c r="M164">
         <v>1632</v>
       </c>
       <c r="N164">
@@ -13294,6 +14539,15 @@
       <c r="J165">
         <v>0</v>
       </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
       <c r="N165">
         <v>0</v>
       </c>
@@ -13351,13 +14605,13 @@
         <v>5780</v>
       </c>
       <c r="E166">
-        <v>5500</v>
+        <v>6018</v>
       </c>
       <c r="F166">
-        <v>5500</v>
+        <v>6018</v>
       </c>
       <c r="G166">
-        <v>5500</v>
+        <v>6018</v>
       </c>
       <c r="H166">
         <v>5780</v>
@@ -13367,6 +14621,15 @@
       </c>
       <c r="J166">
         <v>5780</v>
+      </c>
+      <c r="K166">
+        <v>6018</v>
+      </c>
+      <c r="L166">
+        <v>6018</v>
+      </c>
+      <c r="M166">
+        <v>6018</v>
       </c>
       <c r="N166">
         <v>4592</v>
@@ -13425,13 +14688,13 @@
         <v>15226</v>
       </c>
       <c r="E167">
-        <v>17668</v>
+        <v>19397</v>
       </c>
       <c r="F167">
-        <v>11135</v>
+        <v>12099</v>
       </c>
       <c r="G167">
-        <v>14470</v>
+        <v>15891</v>
       </c>
       <c r="H167">
         <v>15226</v>
@@ -13441,6 +14704,15 @@
       </c>
       <c r="J167">
         <v>15226</v>
+      </c>
+      <c r="K167">
+        <v>19397</v>
+      </c>
+      <c r="L167">
+        <v>12099</v>
+      </c>
+      <c r="M167">
+        <v>15891</v>
       </c>
       <c r="N167">
         <v>11976</v>
@@ -13499,13 +14771,13 @@
         <v>10077</v>
       </c>
       <c r="E168">
-        <v>6626</v>
+        <v>7071</v>
       </c>
       <c r="F168">
-        <v>11709</v>
+        <v>12788</v>
       </c>
       <c r="G168">
-        <v>9714</v>
+        <v>10508</v>
       </c>
       <c r="H168">
         <v>10077</v>
@@ -13515,6 +14787,15 @@
       </c>
       <c r="J168">
         <v>10077</v>
+      </c>
+      <c r="K168">
+        <v>7071</v>
+      </c>
+      <c r="L168">
+        <v>12788</v>
+      </c>
+      <c r="M168">
+        <v>10508</v>
       </c>
       <c r="N168">
         <v>8094</v>
@@ -13573,13 +14854,13 @@
         <v>2634</v>
       </c>
       <c r="E169">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="F169">
-        <v>3884</v>
+        <v>4246</v>
       </c>
       <c r="G169">
-        <v>2544</v>
+        <v>2734</v>
       </c>
       <c r="H169">
         <v>2634</v>
@@ -13589,6 +14870,15 @@
       </c>
       <c r="J169">
         <v>2634</v>
+      </c>
+      <c r="K169">
+        <v>751</v>
+      </c>
+      <c r="L169">
+        <v>4246</v>
+      </c>
+      <c r="M169">
+        <v>2734</v>
       </c>
       <c r="N169">
         <v>2162</v>
@@ -13664,6 +14954,15 @@
       <c r="J170">
         <v>0</v>
       </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
       <c r="N170">
         <v>0</v>
       </c>
@@ -13721,13 +15020,13 @@
         <v>5044</v>
       </c>
       <c r="E171">
-        <v>5678</v>
+        <v>5618</v>
       </c>
       <c r="F171">
-        <v>5678</v>
+        <v>5618</v>
       </c>
       <c r="G171">
-        <v>5678</v>
+        <v>5618</v>
       </c>
       <c r="H171">
         <v>5044</v>
@@ -13737,6 +15036,15 @@
       </c>
       <c r="J171">
         <v>5044</v>
+      </c>
+      <c r="K171">
+        <v>5618</v>
+      </c>
+      <c r="L171">
+        <v>5618</v>
+      </c>
+      <c r="M171">
+        <v>5618</v>
       </c>
       <c r="N171">
         <v>4440</v>
@@ -13795,13 +15103,13 @@
         <v>12728</v>
       </c>
       <c r="E172">
-        <v>18559</v>
+        <v>18455</v>
       </c>
       <c r="F172">
-        <v>11096</v>
+        <v>10978</v>
       </c>
       <c r="G172">
-        <v>14678</v>
+        <v>14306</v>
       </c>
       <c r="H172">
         <v>12728</v>
@@ -13811,6 +15119,15 @@
       </c>
       <c r="J172">
         <v>12728</v>
+      </c>
+      <c r="K172">
+        <v>18455</v>
+      </c>
+      <c r="L172">
+        <v>10978</v>
+      </c>
+      <c r="M172">
+        <v>14306</v>
       </c>
       <c r="N172">
         <v>11288</v>
@@ -13869,13 +15186,13 @@
         <v>9121</v>
       </c>
       <c r="E173">
-        <v>6594</v>
+        <v>6608</v>
       </c>
       <c r="F173">
-        <v>11882</v>
+        <v>11773</v>
       </c>
       <c r="G173">
-        <v>9809</v>
+        <v>9879</v>
       </c>
       <c r="H173">
         <v>9121</v>
@@ -13885,6 +15202,15 @@
       </c>
       <c r="J173">
         <v>9121</v>
+      </c>
+      <c r="K173">
+        <v>6608</v>
+      </c>
+      <c r="L173">
+        <v>11773</v>
+      </c>
+      <c r="M173">
+        <v>9879</v>
       </c>
       <c r="N173">
         <v>8060</v>
@@ -13943,13 +15269,13 @@
         <v>2158</v>
       </c>
       <c r="E174">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="F174">
-        <v>4007</v>
+        <v>3996</v>
       </c>
       <c r="G174">
-        <v>2498</v>
+        <v>2562</v>
       </c>
       <c r="H174">
         <v>2158</v>
@@ -13959,6 +15285,15 @@
       </c>
       <c r="J174">
         <v>2158</v>
+      </c>
+      <c r="K174">
+        <v>618</v>
+      </c>
+      <c r="L174">
+        <v>3996</v>
+      </c>
+      <c r="M174">
+        <v>2562</v>
       </c>
       <c r="N174">
         <v>1784</v>
@@ -14034,6 +15369,15 @@
       <c r="J175">
         <v>0</v>
       </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
       <c r="N175">
         <v>0</v>
       </c>
@@ -14091,13 +15435,13 @@
         <v>2616</v>
       </c>
       <c r="E176">
-        <v>3454</v>
+        <v>3226</v>
       </c>
       <c r="F176">
-        <v>3454</v>
+        <v>3226</v>
       </c>
       <c r="G176">
-        <v>3454</v>
+        <v>3226</v>
       </c>
       <c r="H176">
         <v>2616</v>
@@ -14107,6 +15451,15 @@
       </c>
       <c r="J176">
         <v>2616</v>
+      </c>
+      <c r="K176">
+        <v>3226</v>
+      </c>
+      <c r="L176">
+        <v>3226</v>
+      </c>
+      <c r="M176">
+        <v>3226</v>
       </c>
       <c r="N176">
         <v>2984</v>
@@ -14165,13 +15518,13 @@
         <v>6167</v>
       </c>
       <c r="E177">
-        <v>11529</v>
+        <v>10721</v>
       </c>
       <c r="F177">
-        <v>6761</v>
+        <v>6376</v>
       </c>
       <c r="G177">
-        <v>8299</v>
+        <v>7755</v>
       </c>
       <c r="H177">
         <v>6167</v>
@@ -14181,6 +15534,15 @@
       </c>
       <c r="J177">
         <v>6167</v>
+      </c>
+      <c r="K177">
+        <v>10721</v>
+      </c>
+      <c r="L177">
+        <v>6376</v>
+      </c>
+      <c r="M177">
+        <v>7755</v>
       </c>
       <c r="N177">
         <v>7166</v>
@@ -14239,13 +15601,13 @@
         <v>5506</v>
       </c>
       <c r="E178">
-        <v>4789</v>
+        <v>4685</v>
       </c>
       <c r="F178">
-        <v>7296</v>
+        <v>6748</v>
       </c>
       <c r="G178">
-        <v>6779</v>
+        <v>6355</v>
       </c>
       <c r="H178">
         <v>5506</v>
@@ -14255,6 +15617,15 @@
       </c>
       <c r="J178">
         <v>5506</v>
+      </c>
+      <c r="K178">
+        <v>4685</v>
+      </c>
+      <c r="L178">
+        <v>6748</v>
+      </c>
+      <c r="M178">
+        <v>6355</v>
       </c>
       <c r="N178">
         <v>6048</v>
@@ -14313,13 +15684,13 @@
         <v>924</v>
       </c>
       <c r="E179">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="F179">
-        <v>2391</v>
+        <v>2219</v>
       </c>
       <c r="G179">
-        <v>1370</v>
+        <v>1233</v>
       </c>
       <c r="H179">
         <v>924</v>
@@ -14329,6 +15700,15 @@
       </c>
       <c r="J179">
         <v>924</v>
+      </c>
+      <c r="K179">
+        <v>317</v>
+      </c>
+      <c r="L179">
+        <v>2219</v>
+      </c>
+      <c r="M179">
+        <v>1233</v>
       </c>
       <c r="N179">
         <v>1048</v>
@@ -14404,6 +15784,15 @@
       <c r="J180">
         <v>0</v>
       </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
       <c r="N180">
         <v>0</v>
       </c>
@@ -14461,13 +15850,13 @@
         <v>3264</v>
       </c>
       <c r="E181">
-        <v>3802</v>
+        <v>3424</v>
       </c>
       <c r="F181">
-        <v>3802</v>
+        <v>3424</v>
       </c>
       <c r="G181">
-        <v>3802</v>
+        <v>3424</v>
       </c>
       <c r="H181">
         <v>3552</v>
@@ -14477,6 +15866,15 @@
       </c>
       <c r="J181">
         <v>3552</v>
+      </c>
+      <c r="K181">
+        <v>4352</v>
+      </c>
+      <c r="L181">
+        <v>4352</v>
+      </c>
+      <c r="M181">
+        <v>4352</v>
       </c>
       <c r="N181">
         <v>3576</v>
@@ -14535,13 +15933,13 @@
         <v>8042</v>
       </c>
       <c r="E182">
-        <v>11511</v>
+        <v>10469</v>
       </c>
       <c r="F182">
-        <v>7912</v>
+        <v>7173</v>
       </c>
       <c r="G182">
-        <v>9479</v>
+        <v>8469</v>
       </c>
       <c r="H182">
         <v>8762</v>
@@ -14551,6 +15949,15 @@
       </c>
       <c r="J182">
         <v>8762</v>
+      </c>
+      <c r="K182">
+        <v>12789</v>
+      </c>
+      <c r="L182">
+        <v>9205</v>
+      </c>
+      <c r="M182">
+        <v>10789</v>
       </c>
       <c r="N182">
         <v>8796</v>
@@ -14609,13 +16016,13 @@
         <v>6267</v>
       </c>
       <c r="E183">
-        <v>6266</v>
+        <v>5912</v>
       </c>
       <c r="F183">
-        <v>7835</v>
+        <v>7129</v>
       </c>
       <c r="G183">
-        <v>7099</v>
+        <v>6518</v>
       </c>
       <c r="H183">
         <v>6939</v>
@@ -14625,6 +16032,15 @@
       </c>
       <c r="J183">
         <v>6939</v>
+      </c>
+      <c r="K183">
+        <v>7364</v>
+      </c>
+      <c r="L183">
+        <v>9033</v>
+      </c>
+      <c r="M183">
+        <v>8406</v>
       </c>
       <c r="N183">
         <v>6834</v>
@@ -14683,13 +16099,13 @@
         <v>1600</v>
       </c>
       <c r="E184">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="F184">
-        <v>2613</v>
+        <v>2349</v>
       </c>
       <c r="G184">
-        <v>1782</v>
+        <v>1664</v>
       </c>
       <c r="H184">
         <v>1528</v>
@@ -14699,6 +16115,15 @@
       </c>
       <c r="J184">
         <v>1528</v>
+      </c>
+      <c r="K184">
+        <v>1056</v>
+      </c>
+      <c r="L184">
+        <v>3029</v>
+      </c>
+      <c r="M184">
+        <v>2072</v>
       </c>
       <c r="N184">
         <v>1686</v>
@@ -14774,6 +16199,15 @@
       <c r="J185">
         <v>0</v>
       </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
       <c r="N185">
         <v>0</v>
       </c>
@@ -14831,13 +16265,13 @@
         <v>8484</v>
       </c>
       <c r="E186">
-        <v>7952</v>
+        <v>8612</v>
       </c>
       <c r="F186">
-        <v>7952</v>
+        <v>8612</v>
       </c>
       <c r="G186">
-        <v>7952</v>
+        <v>8612</v>
       </c>
       <c r="H186">
         <v>9204</v>
@@ -14847,6 +16281,15 @@
       </c>
       <c r="J186">
         <v>9204</v>
+      </c>
+      <c r="K186">
+        <v>11156</v>
+      </c>
+      <c r="L186">
+        <v>11156</v>
+      </c>
+      <c r="M186">
+        <v>11156</v>
       </c>
       <c r="N186">
         <v>7272</v>
@@ -14905,13 +16348,13 @@
         <v>21927</v>
       </c>
       <c r="E187">
-        <v>24255</v>
+        <v>25810</v>
       </c>
       <c r="F187">
-        <v>16241</v>
+        <v>17566</v>
       </c>
       <c r="G187">
-        <v>20555</v>
+        <v>22281</v>
       </c>
       <c r="H187">
         <v>23847</v>
@@ -14921,6 +16364,15 @@
       </c>
       <c r="J187">
         <v>23847</v>
+      </c>
+      <c r="K187">
+        <v>32896</v>
+      </c>
+      <c r="L187">
+        <v>22864</v>
+      </c>
+      <c r="M187">
+        <v>28737</v>
       </c>
       <c r="N187">
         <v>18750</v>
@@ -14979,13 +16431,13 @@
         <v>15114</v>
       </c>
       <c r="E188">
-        <v>11609</v>
+        <v>12460</v>
       </c>
       <c r="F188">
-        <v>16306</v>
+        <v>17697</v>
       </c>
       <c r="G188">
-        <v>14227</v>
+        <v>15421</v>
       </c>
       <c r="H188">
         <v>16314</v>
@@ -14995,6 +16447,15 @@
       </c>
       <c r="J188">
         <v>16314</v>
+      </c>
+      <c r="K188">
+        <v>15735</v>
+      </c>
+      <c r="L188">
+        <v>22849</v>
+      </c>
+      <c r="M188">
+        <v>20045</v>
       </c>
       <c r="N188">
         <v>12900</v>
@@ -15053,13 +16514,13 @@
         <v>3372</v>
       </c>
       <c r="E189">
-        <v>986</v>
+        <v>1066</v>
       </c>
       <c r="F189">
-        <v>5396</v>
+        <v>5813</v>
       </c>
       <c r="G189">
-        <v>3161</v>
+        <v>3374</v>
       </c>
       <c r="H189">
         <v>3546</v>
@@ -15069,6 +16530,15 @@
       </c>
       <c r="J189">
         <v>3546</v>
+      </c>
+      <c r="K189">
+        <v>1417</v>
+      </c>
+      <c r="L189">
+        <v>7583</v>
+      </c>
+      <c r="M189">
+        <v>4514</v>
       </c>
       <c r="N189">
         <v>3036</v>
@@ -15144,6 +16614,15 @@
       <c r="J190">
         <v>0</v>
       </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
       <c r="N190">
         <v>0</v>
       </c>
@@ -15201,13 +16680,13 @@
         <v>15006</v>
       </c>
       <c r="E191">
-        <v>14206</v>
+        <v>15334</v>
       </c>
       <c r="F191">
-        <v>14206</v>
+        <v>15334</v>
       </c>
       <c r="G191">
-        <v>14206</v>
+        <v>15334</v>
       </c>
       <c r="H191">
         <v>16742</v>
@@ -15217,6 +16696,15 @@
       </c>
       <c r="J191">
         <v>16742</v>
+      </c>
+      <c r="K191">
+        <v>20240</v>
+      </c>
+      <c r="L191">
+        <v>20240</v>
+      </c>
+      <c r="M191">
+        <v>20240</v>
       </c>
       <c r="N191">
         <v>11742</v>
@@ -15275,13 +16763,13 @@
         <v>39122</v>
       </c>
       <c r="E192">
-        <v>44010</v>
+        <v>47577</v>
       </c>
       <c r="F192">
-        <v>28076</v>
+        <v>30268</v>
       </c>
       <c r="G192">
-        <v>37025</v>
+        <v>40001</v>
       </c>
       <c r="H192">
         <v>43424</v>
@@ -15291,6 +16779,15 @@
       </c>
       <c r="J192">
         <v>43424</v>
+      </c>
+      <c r="K192">
+        <v>61915</v>
+      </c>
+      <c r="L192">
+        <v>40152</v>
+      </c>
+      <c r="M192">
+        <v>52707</v>
       </c>
       <c r="N192">
         <v>30438</v>
@@ -15349,13 +16846,13 @@
         <v>24989</v>
       </c>
       <c r="E193">
-        <v>16777</v>
+        <v>18105</v>
       </c>
       <c r="F193">
-        <v>28860</v>
+        <v>31206</v>
       </c>
       <c r="G193">
-        <v>23775</v>
+        <v>25647</v>
       </c>
       <c r="H193">
         <v>28137</v>
@@ -15365,6 +16862,15 @@
       </c>
       <c r="J193">
         <v>28137</v>
+      </c>
+      <c r="K193">
+        <v>23856</v>
+      </c>
+      <c r="L193">
+        <v>41155</v>
+      </c>
+      <c r="M193">
+        <v>34347</v>
       </c>
       <c r="N193">
         <v>19580</v>
@@ -15423,13 +16929,13 @@
         <v>5931</v>
       </c>
       <c r="E194">
-        <v>1651</v>
+        <v>1805</v>
       </c>
       <c r="F194">
-        <v>9533</v>
+        <v>10245</v>
       </c>
       <c r="G194">
-        <v>5669</v>
+        <v>6071</v>
       </c>
       <c r="H194">
         <v>6581</v>
@@ -15439,6 +16945,15 @@
       </c>
       <c r="J194">
         <v>6581</v>
+      </c>
+      <c r="K194">
+        <v>2235</v>
+      </c>
+      <c r="L194">
+        <v>13561</v>
+      </c>
+      <c r="M194">
+        <v>7814</v>
       </c>
       <c r="N194">
         <v>4767</v>
@@ -15514,6 +17029,15 @@
       <c r="J195">
         <v>0</v>
       </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
       <c r="N195">
         <v>0</v>
       </c>
@@ -15571,13 +17095,13 @@
         <v>14208</v>
       </c>
       <c r="E196">
-        <v>14984</v>
+        <v>15208</v>
       </c>
       <c r="F196">
-        <v>14984</v>
+        <v>15208</v>
       </c>
       <c r="G196">
-        <v>14984</v>
+        <v>15208</v>
       </c>
       <c r="H196">
         <v>16876</v>
@@ -15587,6 +17111,15 @@
       </c>
       <c r="J196">
         <v>16876</v>
+      </c>
+      <c r="K196">
+        <v>21606</v>
+      </c>
+      <c r="L196">
+        <v>21606</v>
+      </c>
+      <c r="M196">
+        <v>21606</v>
       </c>
       <c r="N196">
         <v>11104</v>
@@ -15645,13 +17178,13 @@
         <v>35912</v>
       </c>
       <c r="E197">
-        <v>47642</v>
+        <v>48682</v>
       </c>
       <c r="F197">
-        <v>28860</v>
+        <v>29440</v>
       </c>
       <c r="G197">
-        <v>38372</v>
+        <v>38600</v>
       </c>
       <c r="H197">
         <v>42488</v>
@@ -15661,6 +17194,15 @@
       </c>
       <c r="J197">
         <v>42488</v>
+      </c>
+      <c r="K197">
+        <v>67609</v>
+      </c>
+      <c r="L197">
+        <v>41746</v>
+      </c>
+      <c r="M197">
+        <v>54983</v>
       </c>
       <c r="N197">
         <v>28233</v>
@@ -15719,13 +17261,13 @@
         <v>24138</v>
       </c>
       <c r="E198">
-        <v>16944</v>
+        <v>17641</v>
       </c>
       <c r="F198">
-        <v>30000</v>
+        <v>30498</v>
       </c>
       <c r="G198">
-        <v>24860</v>
+        <v>25781</v>
       </c>
       <c r="H198">
         <v>28579</v>
@@ -15735,6 +17277,15 @@
       </c>
       <c r="J198">
         <v>28579</v>
+      </c>
+      <c r="K198">
+        <v>24871</v>
+      </c>
+      <c r="L198">
+        <v>43259</v>
+      </c>
+      <c r="M198">
+        <v>36144</v>
       </c>
       <c r="N198">
         <v>18883</v>
@@ -15793,13 +17344,13 @@
         <v>5266</v>
       </c>
       <c r="E199">
-        <v>1519</v>
+        <v>1493</v>
       </c>
       <c r="F199">
-        <v>10043</v>
+        <v>10181</v>
       </c>
       <c r="G199">
-        <v>5671</v>
+        <v>5738</v>
       </c>
       <c r="H199">
         <v>6559</v>
@@ -15809,6 +17360,15 @@
       </c>
       <c r="J199">
         <v>6559</v>
+      </c>
+      <c r="K199">
+        <v>2365</v>
+      </c>
+      <c r="L199">
+        <v>14594</v>
+      </c>
+      <c r="M199">
+        <v>8472</v>
       </c>
       <c r="N199">
         <v>4066</v>
@@ -15884,6 +17444,15 @@
       <c r="J200">
         <v>0</v>
       </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
       <c r="N200">
         <v>0</v>
       </c>
@@ -15941,13 +17510,13 @@
         <v>7180</v>
       </c>
       <c r="E201">
-        <v>9198</v>
+        <v>8634</v>
       </c>
       <c r="F201">
-        <v>9198</v>
+        <v>8634</v>
       </c>
       <c r="G201">
-        <v>9198</v>
+        <v>8634</v>
       </c>
       <c r="H201">
         <v>10898</v>
@@ -15957,6 +17526,15 @@
       </c>
       <c r="J201">
         <v>10898</v>
+      </c>
+      <c r="K201">
+        <v>13998</v>
+      </c>
+      <c r="L201">
+        <v>13998</v>
+      </c>
+      <c r="M201">
+        <v>13998</v>
       </c>
       <c r="N201">
         <v>7306</v>
@@ -16015,13 +17593,13 @@
         <v>17401</v>
       </c>
       <c r="E202">
-        <v>30517</v>
+        <v>29055</v>
       </c>
       <c r="F202">
-        <v>17946</v>
+        <v>16925</v>
       </c>
       <c r="G202">
-        <v>22571</v>
+        <v>21193</v>
       </c>
       <c r="H202">
         <v>26811</v>
@@ -16031,6 +17609,15 @@
       </c>
       <c r="J202">
         <v>26811</v>
+      </c>
+      <c r="K202">
+        <v>45981</v>
+      </c>
+      <c r="L202">
+        <v>26917</v>
+      </c>
+      <c r="M202">
+        <v>34781</v>
       </c>
       <c r="N202">
         <v>17717</v>
@@ -16089,13 +17676,13 @@
         <v>13343</v>
       </c>
       <c r="E203">
-        <v>12100</v>
+        <v>11547</v>
       </c>
       <c r="F203">
-        <v>18454</v>
+        <v>17195</v>
       </c>
       <c r="G203">
-        <v>16485</v>
+        <v>15414</v>
       </c>
       <c r="H203">
         <v>19510</v>
@@ -16105,6 +17692,15 @@
       </c>
       <c r="J203">
         <v>19510</v>
+      </c>
+      <c r="K203">
+        <v>17810</v>
+      </c>
+      <c r="L203">
+        <v>27740</v>
+      </c>
+      <c r="M203">
+        <v>24037</v>
       </c>
       <c r="N203">
         <v>13626</v>
@@ -16163,13 +17759,13 @@
         <v>2469</v>
       </c>
       <c r="E204">
-        <v>1040</v>
+        <v>1016</v>
       </c>
       <c r="F204">
-        <v>6128</v>
+        <v>5681</v>
       </c>
       <c r="G204">
-        <v>3472</v>
+        <v>3194</v>
       </c>
       <c r="H204">
         <v>3754</v>
@@ -16179,6 +17775,15 @@
       </c>
       <c r="J204">
         <v>3754</v>
+      </c>
+      <c r="K204">
+        <v>1535</v>
+      </c>
+      <c r="L204">
+        <v>9257</v>
+      </c>
+      <c r="M204">
+        <v>5096</v>
       </c>
       <c r="N204">
         <v>2496</v>
@@ -16254,6 +17859,15 @@
       <c r="J205">
         <v>0</v>
       </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
       <c r="N205">
         <v>0</v>
       </c>
@@ -16311,13 +17925,13 @@
         <v>6284</v>
       </c>
       <c r="E206">
-        <v>7702</v>
+        <v>6828</v>
       </c>
       <c r="F206">
-        <v>7702</v>
+        <v>6828</v>
       </c>
       <c r="G206">
-        <v>7702</v>
+        <v>6828</v>
       </c>
       <c r="H206">
         <v>9214</v>
@@ -16327,6 +17941,15 @@
       </c>
       <c r="J206">
         <v>9214</v>
+      </c>
+      <c r="K206">
+        <v>9728</v>
+      </c>
+      <c r="L206">
+        <v>9728</v>
+      </c>
+      <c r="M206">
+        <v>9728</v>
       </c>
       <c r="N206">
         <v>6592</v>
@@ -16385,13 +18008,13 @@
         <v>15607</v>
       </c>
       <c r="E207">
-        <v>24142</v>
+        <v>21810</v>
       </c>
       <c r="F207">
-        <v>15789</v>
+        <v>14087</v>
       </c>
       <c r="G207">
-        <v>19212</v>
+        <v>17029</v>
       </c>
       <c r="H207">
         <v>23100</v>
@@ -16401,6 +18024,15 @@
       </c>
       <c r="J207">
         <v>23100</v>
+      </c>
+      <c r="K207">
+        <v>32124</v>
+      </c>
+      <c r="L207">
+        <v>19417</v>
+      </c>
+      <c r="M207">
+        <v>24425</v>
       </c>
       <c r="N207">
         <v>16252</v>
@@ -16459,13 +18091,13 @@
         <v>11329</v>
       </c>
       <c r="E208">
-        <v>11380</v>
+        <v>10353</v>
       </c>
       <c r="F208">
-        <v>15190</v>
+        <v>13504</v>
       </c>
       <c r="G208">
-        <v>13697</v>
+        <v>12236</v>
       </c>
       <c r="H208">
         <v>16012</v>
@@ -16475,6 +18107,15 @@
       </c>
       <c r="J208">
         <v>16012</v>
+      </c>
+      <c r="K208">
+        <v>13481</v>
+      </c>
+      <c r="L208">
+        <v>19131</v>
+      </c>
+      <c r="M208">
+        <v>16895</v>
       </c>
       <c r="N208">
         <v>12007</v>
@@ -16533,13 +18174,13 @@
         <v>2704</v>
       </c>
       <c r="E209">
-        <v>1402</v>
+        <v>1323</v>
       </c>
       <c r="F209">
-        <v>5209</v>
+        <v>4593</v>
       </c>
       <c r="G209">
-        <v>3279</v>
+        <v>2919</v>
       </c>
       <c r="H209">
         <v>3432</v>
@@ -16549,6 +18190,15 @@
       </c>
       <c r="J209">
         <v>3432</v>
+      </c>
+      <c r="K209">
+        <v>1445</v>
+      </c>
+      <c r="L209">
+        <v>6210</v>
+      </c>
+      <c r="M209">
+        <v>3438</v>
       </c>
       <c r="N209">
         <v>2947</v>
@@ -16624,6 +18274,15 @@
       <c r="J210">
         <v>0</v>
       </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
       <c r="N210">
         <v>0</v>
       </c>
@@ -16681,13 +18340,13 @@
         <v>14834</v>
       </c>
       <c r="E211">
-        <v>14824</v>
+        <v>15116</v>
       </c>
       <c r="F211">
-        <v>14824</v>
+        <v>15116</v>
       </c>
       <c r="G211">
-        <v>14824</v>
+        <v>15116</v>
       </c>
       <c r="H211">
         <v>15368</v>
@@ -16697,6 +18356,15 @@
       </c>
       <c r="J211">
         <v>15368</v>
+      </c>
+      <c r="K211">
+        <v>15828</v>
+      </c>
+      <c r="L211">
+        <v>15828</v>
+      </c>
+      <c r="M211">
+        <v>15828</v>
       </c>
       <c r="N211">
         <v>12792</v>
@@ -16755,13 +18423,13 @@
         <v>38108</v>
       </c>
       <c r="E212">
-        <v>43671</v>
+        <v>44052</v>
       </c>
       <c r="F212">
-        <v>29788</v>
+        <v>30482</v>
       </c>
       <c r="G212">
-        <v>38043</v>
+        <v>38873</v>
       </c>
       <c r="H212">
         <v>39501</v>
@@ -16771,6 +18439,15 @@
       </c>
       <c r="J212">
         <v>39501</v>
+      </c>
+      <c r="K212">
+        <v>47420</v>
+      </c>
+      <c r="L212">
+        <v>31797</v>
+      </c>
+      <c r="M212">
+        <v>40541</v>
       </c>
       <c r="N212">
         <v>32778</v>
@@ -16829,13 +18506,13 @@
         <v>25035</v>
       </c>
       <c r="E213">
-        <v>19904</v>
+        <v>20239</v>
       </c>
       <c r="F213">
-        <v>29276</v>
+        <v>29860</v>
       </c>
       <c r="G213">
-        <v>25079</v>
+        <v>25542</v>
       </c>
       <c r="H213">
         <v>25798</v>
@@ -16845,6 +18522,15 @@
       </c>
       <c r="J213">
         <v>25798</v>
+      </c>
+      <c r="K213">
+        <v>20990</v>
+      </c>
+      <c r="L213">
+        <v>30436</v>
+      </c>
+      <c r="M213">
+        <v>26258</v>
       </c>
       <c r="N213">
         <v>21564</v>
@@ -16903,13 +18589,13 @@
         <v>5950</v>
       </c>
       <c r="E214">
-        <v>2068</v>
+        <v>2092</v>
       </c>
       <c r="F214">
-        <v>9868</v>
+        <v>10077</v>
       </c>
       <c r="G214">
-        <v>5810</v>
+        <v>6004</v>
       </c>
       <c r="H214">
         <v>5698</v>
@@ -16919,6 +18605,15 @@
       </c>
       <c r="J214">
         <v>5698</v>
+      </c>
+      <c r="K214">
+        <v>2100</v>
+      </c>
+      <c r="L214">
+        <v>10231</v>
+      </c>
+      <c r="M214">
+        <v>5665</v>
       </c>
       <c r="N214">
         <v>5172</v>
@@ -16994,6 +18689,15 @@
       <c r="J215">
         <v>0</v>
       </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
       <c r="N215">
         <v>0</v>
       </c>
@@ -17051,13 +18755,13 @@
         <v>25636</v>
       </c>
       <c r="E216">
-        <v>24026</v>
+        <v>25926</v>
       </c>
       <c r="F216">
-        <v>24026</v>
+        <v>25926</v>
       </c>
       <c r="G216">
-        <v>24026</v>
+        <v>25926</v>
       </c>
       <c r="H216">
         <v>24864</v>
@@ -17067,6 +18771,15 @@
       </c>
       <c r="J216">
         <v>24864</v>
+      </c>
+      <c r="K216">
+        <v>24910</v>
+      </c>
+      <c r="L216">
+        <v>24910</v>
+      </c>
+      <c r="M216">
+        <v>24910</v>
       </c>
       <c r="N216">
         <v>19720</v>
@@ -17125,13 +18838,13 @@
         <v>66601</v>
       </c>
       <c r="E217">
-        <v>73145</v>
+        <v>78436</v>
       </c>
       <c r="F217">
-        <v>46462</v>
+        <v>50217</v>
       </c>
       <c r="G217">
-        <v>62401</v>
+        <v>67386</v>
       </c>
       <c r="H217">
         <v>64360</v>
@@ -17141,6 +18854,15 @@
       </c>
       <c r="J217">
         <v>64360</v>
+      </c>
+      <c r="K217">
+        <v>75683</v>
+      </c>
+      <c r="L217">
+        <v>47999</v>
+      </c>
+      <c r="M217">
+        <v>64462</v>
       </c>
       <c r="N217">
         <v>50864</v>
@@ -17199,13 +18921,13 @@
         <v>41212</v>
       </c>
       <c r="E218">
-        <v>28092</v>
+        <v>30340</v>
       </c>
       <c r="F218">
-        <v>46911</v>
+        <v>50656</v>
       </c>
       <c r="G218">
-        <v>38451</v>
+        <v>41702</v>
       </c>
       <c r="H218">
         <v>39579</v>
@@ -17215,6 +18937,15 @@
       </c>
       <c r="J218">
         <v>39579</v>
+      </c>
+      <c r="K218">
+        <v>29590</v>
+      </c>
+      <c r="L218">
+        <v>47655</v>
+      </c>
+      <c r="M218">
+        <v>39222</v>
       </c>
       <c r="N218">
         <v>31873</v>
@@ -17273,13 +19004,13 @@
         <v>8793</v>
       </c>
       <c r="E219">
-        <v>2327</v>
+        <v>2477</v>
       </c>
       <c r="F219">
-        <v>15626</v>
+        <v>16900</v>
       </c>
       <c r="G219">
-        <v>8147</v>
+        <v>8685</v>
       </c>
       <c r="H219">
         <v>8510</v>
@@ -17289,6 +19020,15 @@
       </c>
       <c r="J219">
         <v>8510</v>
+      </c>
+      <c r="K219">
+        <v>2396</v>
+      </c>
+      <c r="L219">
+        <v>15879</v>
+      </c>
+      <c r="M219">
+        <v>7849</v>
       </c>
       <c r="N219">
         <v>6882</v>
@@ -17364,6 +19104,15 @@
       <c r="J220">
         <v>0</v>
       </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
       <c r="N220">
         <v>0</v>
       </c>
@@ -17421,13 +19170,13 @@
         <v>23262</v>
       </c>
       <c r="E221">
-        <v>22154</v>
+        <v>23102</v>
       </c>
       <c r="F221">
-        <v>22154</v>
+        <v>23102</v>
       </c>
       <c r="G221">
-        <v>22154</v>
+        <v>23102</v>
       </c>
       <c r="H221">
         <v>23360</v>
@@ -17437,6 +19186,15 @@
       </c>
       <c r="J221">
         <v>23360</v>
+      </c>
+      <c r="K221">
+        <v>24006</v>
+      </c>
+      <c r="L221">
+        <v>24006</v>
+      </c>
+      <c r="M221">
+        <v>24006</v>
       </c>
       <c r="N221">
         <v>18746</v>
@@ -17495,13 +19253,13 @@
         <v>59164</v>
       </c>
       <c r="E222">
-        <v>71941</v>
+        <v>75237</v>
       </c>
       <c r="F222">
-        <v>41603</v>
+        <v>43481</v>
       </c>
       <c r="G222">
-        <v>56400</v>
+        <v>58761</v>
       </c>
       <c r="H222">
         <v>58967</v>
@@ -17511,6 +19269,15 @@
       </c>
       <c r="J222">
         <v>58967</v>
+      </c>
+      <c r="K222">
+        <v>77352</v>
+      </c>
+      <c r="L222">
+        <v>44873</v>
+      </c>
+      <c r="M222">
+        <v>60653</v>
       </c>
       <c r="N222">
         <v>47594</v>
@@ -17569,13 +19336,13 @@
         <v>36898</v>
       </c>
       <c r="E223">
-        <v>23929</v>
+        <v>24838</v>
       </c>
       <c r="F223">
-        <v>42672</v>
+        <v>44462</v>
       </c>
       <c r="G223">
-        <v>34785</v>
+        <v>36263</v>
       </c>
       <c r="H223">
         <v>36923</v>
@@ -17585,6 +19352,15 @@
       </c>
       <c r="J223">
         <v>36923</v>
+      </c>
+      <c r="K223">
+        <v>26006</v>
+      </c>
+      <c r="L223">
+        <v>45303</v>
+      </c>
+      <c r="M223">
+        <v>37137</v>
       </c>
       <c r="N223">
         <v>30366</v>
@@ -17643,13 +19419,13 @@
         <v>8076</v>
       </c>
       <c r="E224">
-        <v>1971</v>
+        <v>2087</v>
       </c>
       <c r="F224">
-        <v>14194</v>
+        <v>14834</v>
       </c>
       <c r="G224">
-        <v>7284</v>
+        <v>7753</v>
       </c>
       <c r="H224">
         <v>8067</v>
@@ -17659,6 +19435,15 @@
       </c>
       <c r="J224">
         <v>8067</v>
+      </c>
+      <c r="K224">
+        <v>2183</v>
+      </c>
+      <c r="L224">
+        <v>15240</v>
+      </c>
+      <c r="M224">
+        <v>7626</v>
       </c>
       <c r="N224">
         <v>6194</v>
@@ -17734,6 +19519,15 @@
       <c r="J225">
         <v>0</v>
       </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
       <c r="N225">
         <v>0</v>
       </c>
@@ -17791,13 +19585,13 @@
         <v>10494</v>
       </c>
       <c r="E226">
-        <v>10308</v>
+        <v>9900</v>
       </c>
       <c r="F226">
-        <v>10308</v>
+        <v>9900</v>
       </c>
       <c r="G226">
-        <v>10308</v>
+        <v>9900</v>
       </c>
       <c r="H226">
         <v>13278</v>
@@ -17807,6 +19601,15 @@
       </c>
       <c r="J226">
         <v>13278</v>
+      </c>
+      <c r="K226">
+        <v>12542</v>
+      </c>
+      <c r="L226">
+        <v>12542</v>
+      </c>
+      <c r="M226">
+        <v>12542</v>
       </c>
       <c r="N226">
         <v>11196</v>
@@ -17865,13 +19668,13 @@
         <v>25768</v>
       </c>
       <c r="E227">
-        <v>36989</v>
+        <v>36494</v>
       </c>
       <c r="F227">
-        <v>19757</v>
+        <v>19024</v>
       </c>
       <c r="G227">
-        <v>24992</v>
+        <v>23972</v>
       </c>
       <c r="H227">
         <v>32944</v>
@@ -17881,6 +19684,15 @@
       </c>
       <c r="J227">
         <v>32944</v>
+      </c>
+      <c r="K227">
+        <v>44587</v>
+      </c>
+      <c r="L227">
+        <v>23189</v>
+      </c>
+      <c r="M227">
+        <v>31062</v>
       </c>
       <c r="N227">
         <v>27444</v>
@@ -17939,13 +19751,13 @@
         <v>18526</v>
       </c>
       <c r="E228">
-        <v>12782</v>
+        <v>12324</v>
       </c>
       <c r="F228">
-        <v>19882</v>
+        <v>19004</v>
       </c>
       <c r="G228">
-        <v>17835</v>
+        <v>17163</v>
       </c>
       <c r="H228">
         <v>21878</v>
@@ -17955,6 +19767,15 @@
       </c>
       <c r="J228">
         <v>21878</v>
+      </c>
+      <c r="K228">
+        <v>13854</v>
+      </c>
+      <c r="L228">
+        <v>23607</v>
+      </c>
+      <c r="M228">
+        <v>19759</v>
       </c>
       <c r="N228">
         <v>19333</v>
@@ -18013,13 +19834,13 @@
         <v>3288</v>
       </c>
       <c r="E229">
-        <v>813</v>
+        <v>732</v>
       </c>
       <c r="F229">
-        <v>6576</v>
+        <v>6318</v>
       </c>
       <c r="G229">
-        <v>3388</v>
+        <v>3211</v>
       </c>
       <c r="H229">
         <v>4102</v>
@@ -18029,6 +19850,15 @@
       </c>
       <c r="J229">
         <v>4102</v>
+      </c>
+      <c r="K229">
+        <v>840</v>
+      </c>
+      <c r="L229">
+        <v>7841</v>
+      </c>
+      <c r="M229">
+        <v>3816</v>
       </c>
       <c r="N229">
         <v>3519</v>
@@ -18104,6 +19934,15 @@
       <c r="J230">
         <v>0</v>
       </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
       <c r="N230">
         <v>0</v>
       </c>
@@ -18161,13 +20000,13 @@
         <v>7472</v>
       </c>
       <c r="E231">
-        <v>7554</v>
+        <v>7178</v>
       </c>
       <c r="F231">
-        <v>7554</v>
+        <v>7178</v>
       </c>
       <c r="G231">
-        <v>7554</v>
+        <v>7178</v>
       </c>
       <c r="H231">
         <v>7650</v>
@@ -18177,6 +20016,15 @@
       </c>
       <c r="J231">
         <v>7650</v>
+      </c>
+      <c r="K231">
+        <v>6040</v>
+      </c>
+      <c r="L231">
+        <v>6040</v>
+      </c>
+      <c r="M231">
+        <v>6040</v>
       </c>
       <c r="N231">
         <v>7624</v>
@@ -18235,13 +20083,13 @@
         <v>18599</v>
       </c>
       <c r="E232">
-        <v>23805</v>
+        <v>22858</v>
       </c>
       <c r="F232">
-        <v>15379</v>
+        <v>14718</v>
       </c>
       <c r="G232">
-        <v>18690</v>
+        <v>17838</v>
       </c>
       <c r="H232">
         <v>19000</v>
@@ -18251,6 +20099,15 @@
       </c>
       <c r="J232">
         <v>19000</v>
+      </c>
+      <c r="K232">
+        <v>21110</v>
+      </c>
+      <c r="L232">
+        <v>11891</v>
+      </c>
+      <c r="M232">
+        <v>14844</v>
       </c>
       <c r="N232">
         <v>18770</v>
@@ -18309,13 +20166,13 @@
         <v>13019</v>
       </c>
       <c r="E233">
-        <v>11052</v>
+        <v>10683</v>
       </c>
       <c r="F233">
-        <v>14352</v>
+        <v>13653</v>
       </c>
       <c r="G233">
-        <v>13164</v>
+        <v>12535</v>
       </c>
       <c r="H233">
         <v>12940</v>
@@ -18325,6 +20182,15 @@
       </c>
       <c r="J233">
         <v>12940</v>
+      </c>
+      <c r="K233">
+        <v>7935</v>
+      </c>
+      <c r="L233">
+        <v>11488</v>
+      </c>
+      <c r="M233">
+        <v>10406</v>
       </c>
       <c r="N233">
         <v>13390</v>
@@ -18383,13 +20249,13 @@
         <v>2679</v>
       </c>
       <c r="E234">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="F234">
-        <v>4829</v>
+        <v>4654</v>
       </c>
       <c r="G234">
-        <v>2706</v>
+        <v>2652</v>
       </c>
       <c r="H234">
         <v>2210</v>
@@ -18399,6 +20265,15 @@
       </c>
       <c r="J234">
         <v>2210</v>
+      </c>
+      <c r="K234">
+        <v>608</v>
+      </c>
+      <c r="L234">
+        <v>3745</v>
+      </c>
+      <c r="M234">
+        <v>1874</v>
       </c>
       <c r="N234">
         <v>2659</v>
@@ -18474,6 +20349,15 @@
       <c r="J235">
         <v>0</v>
       </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
       <c r="N235">
         <v>0</v>
       </c>
@@ -18531,13 +20415,13 @@
         <v>17452</v>
       </c>
       <c r="E236">
-        <v>16298</v>
+        <v>17390</v>
       </c>
       <c r="F236">
-        <v>16298</v>
+        <v>17390</v>
       </c>
       <c r="G236">
-        <v>16298</v>
+        <v>17390</v>
       </c>
       <c r="H236">
         <v>12036</v>
@@ -18547,6 +20431,15 @@
       </c>
       <c r="J236">
         <v>12036</v>
+      </c>
+      <c r="K236">
+        <v>11510</v>
+      </c>
+      <c r="L236">
+        <v>11510</v>
+      </c>
+      <c r="M236">
+        <v>11510</v>
       </c>
       <c r="N236">
         <v>13412</v>
@@ -18605,13 +20498,13 @@
         <v>44694</v>
       </c>
       <c r="E237">
-        <v>46335</v>
+        <v>49099</v>
       </c>
       <c r="F237">
-        <v>32163</v>
+        <v>34280</v>
       </c>
       <c r="G237">
-        <v>41743</v>
+        <v>44619</v>
       </c>
       <c r="H237">
         <v>30976</v>
@@ -18621,6 +20514,15 @@
       </c>
       <c r="J237">
         <v>30976</v>
+      </c>
+      <c r="K237">
+        <v>33028</v>
+      </c>
+      <c r="L237">
+        <v>22911</v>
+      </c>
+      <c r="M237">
+        <v>29494</v>
       </c>
       <c r="N237">
         <v>34163</v>
@@ -18679,13 +20581,13 @@
         <v>27734</v>
       </c>
       <c r="E238">
-        <v>21428</v>
+        <v>22814</v>
       </c>
       <c r="F238">
-        <v>30678</v>
+        <v>32906</v>
       </c>
       <c r="G238">
-        <v>26161</v>
+        <v>27725</v>
       </c>
       <c r="H238">
         <v>18810</v>
@@ -18695,6 +20597,15 @@
       </c>
       <c r="J238">
         <v>18810</v>
+      </c>
+      <c r="K238">
+        <v>15690</v>
+      </c>
+      <c r="L238">
+        <v>21388</v>
+      </c>
+      <c r="M238">
+        <v>18057</v>
       </c>
       <c r="N238">
         <v>21556</v>
@@ -18753,13 +20664,13 @@
         <v>6119</v>
       </c>
       <c r="E239">
-        <v>2143</v>
+        <v>2450</v>
       </c>
       <c r="F239">
-        <v>10272</v>
+        <v>11153</v>
       </c>
       <c r="G239">
-        <v>5209</v>
+        <v>5995</v>
       </c>
       <c r="H239">
         <v>4235</v>
@@ -18769,6 +20680,15 @@
       </c>
       <c r="J239">
         <v>4235</v>
+      </c>
+      <c r="K239">
+        <v>1965</v>
+      </c>
+      <c r="L239">
+        <v>7324</v>
+      </c>
+      <c r="M239">
+        <v>4072</v>
       </c>
       <c r="N239">
         <v>4518</v>
@@ -18844,6 +20764,15 @@
       <c r="J240">
         <v>0</v>
       </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
       <c r="N240">
         <v>0</v>
       </c>
@@ -18901,13 +20830,13 @@
         <v>27128</v>
       </c>
       <c r="E241">
-        <v>25344</v>
+        <v>27210</v>
       </c>
       <c r="F241">
-        <v>25344</v>
+        <v>27210</v>
       </c>
       <c r="G241">
-        <v>25344</v>
+        <v>27210</v>
       </c>
       <c r="H241">
         <v>18954</v>
@@ -18917,6 +20846,15 @@
       </c>
       <c r="J241">
         <v>18954</v>
+      </c>
+      <c r="K241">
+        <v>19084</v>
+      </c>
+      <c r="L241">
+        <v>19084</v>
+      </c>
+      <c r="M241">
+        <v>19084</v>
       </c>
       <c r="N241">
         <v>20634</v>
@@ -18975,13 +20913,13 @@
         <v>69956</v>
       </c>
       <c r="E242">
-        <v>77262</v>
+        <v>82652</v>
       </c>
       <c r="F242">
-        <v>47758</v>
+        <v>51057</v>
       </c>
       <c r="G242">
-        <v>65530</v>
+        <v>70298</v>
       </c>
       <c r="H242">
         <v>48827</v>
@@ -18991,6 +20929,15 @@
       </c>
       <c r="J242">
         <v>48827</v>
+      </c>
+      <c r="K242">
+        <v>57929</v>
+      </c>
+      <c r="L242">
+        <v>36081</v>
+      </c>
+      <c r="M242">
+        <v>49181</v>
       </c>
       <c r="N242">
         <v>53153</v>
@@ -19049,13 +20996,13 @@
         <v>40881</v>
       </c>
       <c r="E243">
-        <v>28638</v>
+        <v>31000</v>
       </c>
       <c r="F243">
-        <v>47325</v>
+        <v>51130</v>
       </c>
       <c r="G243">
-        <v>37931</v>
+        <v>41027</v>
       </c>
       <c r="H243">
         <v>28467</v>
@@ -19065,6 +21012,15 @@
       </c>
       <c r="J243">
         <v>28467</v>
+      </c>
+      <c r="K243">
+        <v>23454</v>
+      </c>
+      <c r="L243">
+        <v>35496</v>
+      </c>
+      <c r="M243">
+        <v>28705</v>
       </c>
       <c r="N243">
         <v>31260</v>
@@ -19123,13 +21079,13 @@
         <v>7983</v>
       </c>
       <c r="E244">
-        <v>2648</v>
+        <v>2820</v>
       </c>
       <c r="F244">
-        <v>15721</v>
+        <v>16973</v>
       </c>
       <c r="G244">
-        <v>7343</v>
+        <v>7835</v>
       </c>
       <c r="H244">
         <v>5748</v>
@@ -19139,6 +21095,15 @@
       </c>
       <c r="J244">
         <v>5748</v>
+      </c>
+      <c r="K244">
+        <v>2220</v>
+      </c>
+      <c r="L244">
+        <v>11814</v>
+      </c>
+      <c r="M244">
+        <v>5505</v>
       </c>
       <c r="N244">
         <v>6341</v>
@@ -19214,6 +21179,15 @@
       <c r="J245">
         <v>0</v>
       </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
       <c r="N245">
         <v>0</v>
       </c>
@@ -19271,13 +21245,13 @@
         <v>22076</v>
       </c>
       <c r="E246">
-        <v>20702</v>
+        <v>21412</v>
       </c>
       <c r="F246">
-        <v>20702</v>
+        <v>21412</v>
       </c>
       <c r="G246">
-        <v>20702</v>
+        <v>21412</v>
       </c>
       <c r="H246">
         <v>16624</v>
@@ -19287,6 +21261,15 @@
       </c>
       <c r="J246">
         <v>16624</v>
+      </c>
+      <c r="K246">
+        <v>17126</v>
+      </c>
+      <c r="L246">
+        <v>17126</v>
+      </c>
+      <c r="M246">
+        <v>17126</v>
       </c>
       <c r="N246">
         <v>20050</v>
@@ -19345,13 +21328,13 @@
         <v>55664</v>
       </c>
       <c r="E247">
-        <v>69173</v>
+        <v>71721</v>
       </c>
       <c r="F247">
-        <v>37980</v>
+        <v>39359</v>
       </c>
       <c r="G247">
-        <v>52366</v>
+        <v>53916</v>
       </c>
       <c r="H247">
         <v>41865</v>
@@ -19361,6 +21344,15 @@
       </c>
       <c r="J247">
         <v>41865</v>
+      </c>
+      <c r="K247">
+        <v>57266</v>
+      </c>
+      <c r="L247">
+        <v>31888</v>
+      </c>
+      <c r="M247">
+        <v>43240</v>
       </c>
       <c r="N247">
         <v>51050</v>
@@ -19419,13 +21411,13 @@
         <v>33536</v>
       </c>
       <c r="E248">
-        <v>22072</v>
+        <v>22898</v>
       </c>
       <c r="F248">
-        <v>38420</v>
+        <v>39707</v>
       </c>
       <c r="G248">
-        <v>31046</v>
+        <v>32498</v>
       </c>
       <c r="H248">
         <v>25360</v>
@@ -19435,6 +21427,15 @@
       </c>
       <c r="J248">
         <v>25360</v>
+      </c>
+      <c r="K248">
+        <v>19174</v>
+      </c>
+      <c r="L248">
+        <v>31663</v>
+      </c>
+      <c r="M248">
+        <v>26285</v>
       </c>
       <c r="N248">
         <v>30504</v>
@@ -19493,13 +21494,13 @@
         <v>6196</v>
       </c>
       <c r="E249">
-        <v>1671</v>
+        <v>1593</v>
       </c>
       <c r="F249">
-        <v>12652</v>
+        <v>13079</v>
       </c>
       <c r="G249">
-        <v>5640</v>
+        <v>5731</v>
       </c>
       <c r="H249">
         <v>4719</v>
@@ -19509,6 +21510,15 @@
       </c>
       <c r="J249">
         <v>4719</v>
+      </c>
+      <c r="K249">
+        <v>1172</v>
+      </c>
+      <c r="L249">
+        <v>10418</v>
+      </c>
+      <c r="M249">
+        <v>4444</v>
       </c>
       <c r="N249">
         <v>5933</v>
@@ -19584,6 +21594,15 @@
       <c r="J250">
         <v>0</v>
       </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
       <c r="N250">
         <v>0</v>
       </c>
@@ -19641,13 +21660,13 @@
         <v>9462</v>
       </c>
       <c r="E251">
-        <v>8542</v>
+        <v>8398</v>
       </c>
       <c r="F251">
-        <v>8542</v>
+        <v>8398</v>
       </c>
       <c r="G251">
-        <v>8542</v>
+        <v>8398</v>
       </c>
       <c r="H251">
         <v>9438</v>
@@ -19657,6 +21676,15 @@
       </c>
       <c r="J251">
         <v>9438</v>
+      </c>
+      <c r="K251">
+        <v>9496</v>
+      </c>
+      <c r="L251">
+        <v>9496</v>
+      </c>
+      <c r="M251">
+        <v>9496</v>
       </c>
       <c r="N251">
         <v>11570</v>
@@ -19715,13 +21743,13 @@
         <v>23396</v>
       </c>
       <c r="E252">
-        <v>32238</v>
+        <v>32317</v>
       </c>
       <c r="F252">
-        <v>15950</v>
+        <v>15770</v>
       </c>
       <c r="G252">
-        <v>20732</v>
+        <v>20561</v>
       </c>
       <c r="H252">
         <v>23726</v>
@@ -19731,6 +21759,15 @@
       </c>
       <c r="J252">
         <v>23726</v>
+      </c>
+      <c r="K252">
+        <v>33910</v>
+      </c>
+      <c r="L252">
+        <v>17444</v>
+      </c>
+      <c r="M252">
+        <v>23723</v>
       </c>
       <c r="N252">
         <v>28847</v>
@@ -19789,13 +21826,13 @@
         <v>15062</v>
       </c>
       <c r="E253">
-        <v>9857</v>
+        <v>9448</v>
       </c>
       <c r="F253">
-        <v>15917</v>
+        <v>15430</v>
       </c>
       <c r="G253">
-        <v>13969</v>
+        <v>13370</v>
       </c>
       <c r="H253">
         <v>14516</v>
@@ -19805,6 +21842,15 @@
       </c>
       <c r="J253">
         <v>14516</v>
+      </c>
+      <c r="K253">
+        <v>9712</v>
+      </c>
+      <c r="L253">
+        <v>17559</v>
+      </c>
+      <c r="M253">
+        <v>14427</v>
       </c>
       <c r="N253">
         <v>18505</v>
@@ -19863,13 +21909,13 @@
         <v>2558</v>
       </c>
       <c r="E254">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="F254">
-        <v>5162</v>
+        <v>5091</v>
       </c>
       <c r="G254">
-        <v>2328</v>
+        <v>2360</v>
       </c>
       <c r="H254">
         <v>2655</v>
@@ -19879,6 +21925,15 @@
       </c>
       <c r="J254">
         <v>2655</v>
+      </c>
+      <c r="K254">
+        <v>742</v>
+      </c>
+      <c r="L254">
+        <v>5770</v>
+      </c>
+      <c r="M254">
+        <v>2623</v>
       </c>
       <c r="N254">
         <v>3291</v>
@@ -19954,6 +22009,15 @@
       <c r="J255">
         <v>0</v>
       </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
       <c r="N255">
         <v>0</v>
       </c>
@@ -20011,13 +22075,13 @@
         <v>3498</v>
       </c>
       <c r="E256">
-        <v>4184</v>
+        <v>3206</v>
       </c>
       <c r="F256">
-        <v>4184</v>
+        <v>3206</v>
       </c>
       <c r="G256">
-        <v>4184</v>
+        <v>3206</v>
       </c>
       <c r="H256">
         <v>5130</v>
@@ -20027,6 +22091,15 @@
       </c>
       <c r="J256">
         <v>5130</v>
+      </c>
+      <c r="K256">
+        <v>3510</v>
+      </c>
+      <c r="L256">
+        <v>3510</v>
+      </c>
+      <c r="M256">
+        <v>3510</v>
       </c>
       <c r="N256">
         <v>5742</v>
@@ -20085,13 +22158,13 @@
         <v>8679</v>
       </c>
       <c r="E257">
-        <v>14489</v>
+        <v>12096</v>
       </c>
       <c r="F257">
-        <v>8268</v>
+        <v>6433</v>
       </c>
       <c r="G257">
-        <v>10330</v>
+        <v>7938</v>
       </c>
       <c r="H257">
         <v>12858</v>
@@ -20101,6 +22174,15 @@
       </c>
       <c r="J257">
         <v>12858</v>
+      </c>
+      <c r="K257">
+        <v>13017</v>
+      </c>
+      <c r="L257">
+        <v>6596</v>
+      </c>
+      <c r="M257">
+        <v>8689</v>
       </c>
       <c r="N257">
         <v>14121</v>
@@ -20159,13 +22241,13 @@
         <v>5685</v>
       </c>
       <c r="E258">
-        <v>5453</v>
+        <v>4367</v>
       </c>
       <c r="F258">
-        <v>7662</v>
+        <v>5728</v>
       </c>
       <c r="G258">
-        <v>6901</v>
+        <v>5263</v>
       </c>
       <c r="H258">
         <v>8041</v>
@@ -20175,6 +22257,15 @@
       </c>
       <c r="J258">
         <v>8041</v>
+      </c>
+      <c r="K258">
+        <v>4145</v>
+      </c>
+      <c r="L258">
+        <v>6529</v>
+      </c>
+      <c r="M258">
+        <v>5625</v>
       </c>
       <c r="N258">
         <v>9752</v>
@@ -20233,13 +22324,13 @@
         <v>873</v>
       </c>
       <c r="E259">
-        <v>402</v>
+        <v>283</v>
       </c>
       <c r="F259">
-        <v>2574</v>
+        <v>1882</v>
       </c>
       <c r="G259">
-        <v>1273</v>
+        <v>842</v>
       </c>
       <c r="H259">
         <v>1465</v>
@@ -20249,6 +22340,15 @@
       </c>
       <c r="J259">
         <v>1465</v>
+      </c>
+      <c r="K259">
+        <v>181</v>
+      </c>
+      <c r="L259">
+        <v>2161</v>
+      </c>
+      <c r="M259">
+        <v>972</v>
       </c>
       <c r="N259">
         <v>1913</v>
@@ -20324,6 +22424,15 @@
       <c r="J260">
         <v>0</v>
       </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
       <c r="N260">
         <v>0</v>
       </c>
@@ -20381,13 +22490,13 @@
         <v>5910</v>
       </c>
       <c r="E261">
-        <v>7192</v>
+        <v>5920</v>
       </c>
       <c r="F261">
-        <v>7192</v>
+        <v>5920</v>
       </c>
       <c r="G261">
-        <v>7192</v>
+        <v>5920</v>
       </c>
       <c r="H261">
         <v>5838</v>
@@ -20397,6 +22506,15 @@
       </c>
       <c r="J261">
         <v>5838</v>
+      </c>
+      <c r="K261">
+        <v>3220</v>
+      </c>
+      <c r="L261">
+        <v>3220</v>
+      </c>
+      <c r="M261">
+        <v>3220</v>
       </c>
       <c r="N261">
         <v>7676</v>
@@ -20455,13 +22573,13 @@
         <v>15062</v>
       </c>
       <c r="E262">
-        <v>20573</v>
+        <v>17055</v>
       </c>
       <c r="F262">
-        <v>13934</v>
+        <v>11346</v>
       </c>
       <c r="G262">
-        <v>18320</v>
+        <v>15128</v>
       </c>
       <c r="H262">
         <v>15011</v>
@@ -20471,6 +22589,15 @@
       </c>
       <c r="J262">
         <v>15011</v>
+      </c>
+      <c r="K262">
+        <v>9782</v>
+      </c>
+      <c r="L262">
+        <v>6223</v>
+      </c>
+      <c r="M262">
+        <v>8137</v>
       </c>
       <c r="N262">
         <v>19497</v>
@@ -20529,13 +22656,13 @@
         <v>8599</v>
       </c>
       <c r="E263">
-        <v>9070</v>
+        <v>7198</v>
       </c>
       <c r="F263">
-        <v>13012</v>
+        <v>10450</v>
       </c>
       <c r="G263">
-        <v>11014</v>
+        <v>8681</v>
       </c>
       <c r="H263">
         <v>8929</v>
@@ -20545,6 +22672,15 @@
       </c>
       <c r="J263">
         <v>8929</v>
+      </c>
+      <c r="K263">
+        <v>4013</v>
+      </c>
+      <c r="L263">
+        <v>5809</v>
+      </c>
+      <c r="M263">
+        <v>4823</v>
       </c>
       <c r="N263">
         <v>12064</v>
@@ -20603,13 +22739,13 @@
         <v>1513</v>
       </c>
       <c r="E264">
-        <v>855</v>
+        <v>688</v>
       </c>
       <c r="F264">
-        <v>4421</v>
+        <v>3492</v>
       </c>
       <c r="G264">
-        <v>2033</v>
+        <v>1479</v>
       </c>
       <c r="H264">
         <v>1718</v>
@@ -20619,6 +22755,15 @@
       </c>
       <c r="J264">
         <v>1718</v>
+      </c>
+      <c r="K264">
+        <v>557</v>
+      </c>
+      <c r="L264">
+        <v>1931</v>
+      </c>
+      <c r="M264">
+        <v>1003</v>
       </c>
       <c r="N264">
         <v>2480</v>
@@ -20694,6 +22839,15 @@
       <c r="J265">
         <v>0</v>
       </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
       <c r="N265">
         <v>0</v>
       </c>
@@ -20751,13 +22905,13 @@
         <v>8982</v>
       </c>
       <c r="E266">
-        <v>10544</v>
+        <v>8990</v>
       </c>
       <c r="F266">
-        <v>10544</v>
+        <v>8990</v>
       </c>
       <c r="G266">
-        <v>10544</v>
+        <v>8990</v>
       </c>
       <c r="H266">
         <v>8028</v>
@@ -20767,6 +22921,15 @@
       </c>
       <c r="J266">
         <v>8028</v>
+      </c>
+      <c r="K266">
+        <v>5082</v>
+      </c>
+      <c r="L266">
+        <v>5082</v>
+      </c>
+      <c r="M266">
+        <v>5082</v>
       </c>
       <c r="N266">
         <v>12190</v>
@@ -20825,13 +22988,13 @@
         <v>22937</v>
       </c>
       <c r="E267">
-        <v>31972</v>
+        <v>27232</v>
       </c>
       <c r="F267">
-        <v>19366</v>
+        <v>16140</v>
       </c>
       <c r="G267">
-        <v>27066</v>
+        <v>22968</v>
       </c>
       <c r="H267">
         <v>20728</v>
@@ -20841,6 +23004,15 @@
       </c>
       <c r="J267">
         <v>20728</v>
+      </c>
+      <c r="K267">
+        <v>15326</v>
+      </c>
+      <c r="L267">
+        <v>9339</v>
+      </c>
+      <c r="M267">
+        <v>13049</v>
       </c>
       <c r="N267">
         <v>31415</v>
@@ -20899,13 +23071,13 @@
         <v>12255</v>
       </c>
       <c r="E268">
-        <v>11470</v>
+        <v>9409</v>
       </c>
       <c r="F268">
-        <v>18938</v>
+        <v>15856</v>
       </c>
       <c r="G268">
-        <v>14866</v>
+        <v>12285</v>
       </c>
       <c r="H268">
         <v>11445</v>
@@ -20915,6 +23087,15 @@
       </c>
       <c r="J268">
         <v>11445</v>
+      </c>
+      <c r="K268">
+        <v>5764</v>
+      </c>
+      <c r="L268">
+        <v>8929</v>
+      </c>
+      <c r="M268">
+        <v>7114</v>
       </c>
       <c r="N268">
         <v>17816</v>
@@ -20973,13 +23154,13 @@
         <v>2029</v>
       </c>
       <c r="E269">
-        <v>1063</v>
+        <v>790</v>
       </c>
       <c r="F269">
-        <v>6353</v>
+        <v>5235</v>
       </c>
       <c r="G269">
-        <v>2725</v>
+        <v>1978</v>
       </c>
       <c r="H269">
         <v>2089</v>
@@ -20989,6 +23170,15 @@
       </c>
       <c r="J269">
         <v>2089</v>
+      </c>
+      <c r="K269">
+        <v>447</v>
+      </c>
+      <c r="L269">
+        <v>2982</v>
+      </c>
+      <c r="M269">
+        <v>1087</v>
       </c>
       <c r="N269">
         <v>3481</v>
@@ -21064,6 +23254,15 @@
       <c r="J270">
         <v>0</v>
       </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
       <c r="N270">
         <v>0</v>
       </c>
@@ -21121,13 +23320,13 @@
         <v>7308</v>
       </c>
       <c r="E271">
-        <v>7900</v>
+        <v>6368</v>
       </c>
       <c r="F271">
-        <v>7900</v>
+        <v>6368</v>
       </c>
       <c r="G271">
-        <v>7900</v>
+        <v>6368</v>
       </c>
       <c r="H271">
         <v>6370</v>
@@ -21137,6 +23336,15 @@
       </c>
       <c r="J271">
         <v>6370</v>
+      </c>
+      <c r="K271">
+        <v>4332</v>
+      </c>
+      <c r="L271">
+        <v>4332</v>
+      </c>
+      <c r="M271">
+        <v>4332</v>
       </c>
       <c r="N271">
         <v>12358</v>
@@ -21195,13 +23403,13 @@
         <v>18334</v>
       </c>
       <c r="E272">
-        <v>27145</v>
+        <v>21958</v>
       </c>
       <c r="F272">
-        <v>14193</v>
+        <v>11112</v>
       </c>
       <c r="G272">
-        <v>19803</v>
+        <v>15809</v>
       </c>
       <c r="H272">
         <v>16079</v>
@@ -21211,6 +23419,15 @@
       </c>
       <c r="J272">
         <v>16079</v>
+      </c>
+      <c r="K272">
+        <v>14794</v>
+      </c>
+      <c r="L272">
+        <v>7801</v>
+      </c>
+      <c r="M272">
+        <v>10883</v>
       </c>
       <c r="N272">
         <v>31713</v>
@@ -21269,13 +23486,13 @@
         <v>10123</v>
       </c>
       <c r="E273">
-        <v>8189</v>
+        <v>6189</v>
       </c>
       <c r="F273">
-        <v>14030</v>
+        <v>11022</v>
       </c>
       <c r="G273">
-        <v>11322</v>
+        <v>8738</v>
       </c>
       <c r="H273">
         <v>9356</v>
@@ -21285,6 +23502,15 @@
       </c>
       <c r="J273">
         <v>9356</v>
+      </c>
+      <c r="K273">
+        <v>4644</v>
+      </c>
+      <c r="L273">
+        <v>7447</v>
+      </c>
+      <c r="M273">
+        <v>6036</v>
       </c>
       <c r="N273">
         <v>17963</v>
@@ -21343,13 +23569,13 @@
         <v>1663</v>
       </c>
       <c r="E274">
-        <v>472</v>
+        <v>301</v>
       </c>
       <c r="F274">
-        <v>4724</v>
+        <v>3729</v>
       </c>
       <c r="G274">
-        <v>1822</v>
+        <v>1316</v>
       </c>
       <c r="H274">
         <v>1595</v>
@@ -21359,6 +23585,15 @@
       </c>
       <c r="J274">
         <v>1595</v>
+      </c>
+      <c r="K274">
+        <v>192</v>
+      </c>
+      <c r="L274">
+        <v>2519</v>
+      </c>
+      <c r="M274">
+        <v>848</v>
       </c>
       <c r="N274">
         <v>3334</v>
@@ -21434,6 +23669,15 @@
       <c r="J275">
         <v>0</v>
       </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
       <c r="N275">
         <v>0</v>
       </c>
@@ -21491,13 +23735,13 @@
         <v>3412</v>
       </c>
       <c r="E276">
-        <v>3096</v>
+        <v>2294</v>
       </c>
       <c r="F276">
-        <v>3096</v>
+        <v>2294</v>
       </c>
       <c r="G276">
-        <v>3096</v>
+        <v>2294</v>
       </c>
       <c r="H276">
         <v>3948</v>
@@ -21507,6 +23751,15 @@
       </c>
       <c r="J276">
         <v>3948</v>
+      </c>
+      <c r="K276">
+        <v>2948</v>
+      </c>
+      <c r="L276">
+        <v>2948</v>
+      </c>
+      <c r="M276">
+        <v>2948</v>
       </c>
       <c r="N276">
         <v>7246</v>
@@ -21565,13 +23818,13 @@
         <v>8532</v>
       </c>
       <c r="E277">
-        <v>12404</v>
+        <v>9041</v>
       </c>
       <c r="F277">
-        <v>5639</v>
+        <v>4119</v>
       </c>
       <c r="G277">
-        <v>7632</v>
+        <v>5502</v>
       </c>
       <c r="H277">
         <v>10075</v>
@@ -21581,6 +23834,15 @@
       </c>
       <c r="J277">
         <v>10075</v>
+      </c>
+      <c r="K277">
+        <v>10206</v>
+      </c>
+      <c r="L277">
+        <v>5255</v>
+      </c>
+      <c r="M277">
+        <v>7395</v>
       </c>
       <c r="N277">
         <v>18524</v>
@@ -21639,13 +23901,13 @@
         <v>4913</v>
       </c>
       <c r="E278">
-        <v>3085</v>
+        <v>2183</v>
       </c>
       <c r="F278">
-        <v>5484</v>
+        <v>3979</v>
       </c>
       <c r="G278">
-        <v>4622</v>
+        <v>3410</v>
       </c>
       <c r="H278">
         <v>5575</v>
@@ -21655,6 +23917,15 @@
       </c>
       <c r="J278">
         <v>5575</v>
+      </c>
+      <c r="K278">
+        <v>2506</v>
+      </c>
+      <c r="L278">
+        <v>5046</v>
+      </c>
+      <c r="M278">
+        <v>3975</v>
       </c>
       <c r="N278">
         <v>10607</v>
@@ -21713,13 +23984,13 @@
         <v>885</v>
       </c>
       <c r="E279">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="F279">
-        <v>1788</v>
+        <v>1299</v>
       </c>
       <c r="G279">
-        <v>657</v>
+        <v>485</v>
       </c>
       <c r="H279">
         <v>1027</v>
@@ -21729,6 +24000,15 @@
       </c>
       <c r="J279">
         <v>1027</v>
+      </c>
+      <c r="K279">
+        <v>231</v>
+      </c>
+      <c r="L279">
+        <v>1656</v>
+      </c>
+      <c r="M279">
+        <v>587</v>
       </c>
       <c r="N279">
         <v>1871</v>
@@ -21804,6 +24084,15 @@
       <c r="J280">
         <v>0</v>
       </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
       <c r="N280">
         <v>0</v>
       </c>
@@ -21861,13 +24150,13 @@
         <v>356</v>
       </c>
       <c r="E281">
-        <v>746</v>
+        <v>226</v>
       </c>
       <c r="F281">
-        <v>746</v>
+        <v>226</v>
       </c>
       <c r="G281">
-        <v>746</v>
+        <v>226</v>
       </c>
       <c r="H281">
         <v>1824</v>
@@ -21877,6 +24166,15 @@
       </c>
       <c r="J281">
         <v>1824</v>
+      </c>
+      <c r="K281">
+        <v>1278</v>
+      </c>
+      <c r="L281">
+        <v>1278</v>
+      </c>
+      <c r="M281">
+        <v>1278</v>
       </c>
       <c r="N281">
         <v>2366</v>
@@ -21935,13 +24233,13 @@
         <v>905</v>
       </c>
       <c r="E282">
-        <v>3443</v>
+        <v>1532</v>
       </c>
       <c r="F282">
-        <v>1355</v>
+        <v>414</v>
       </c>
       <c r="G282">
-        <v>1828</v>
+        <v>562</v>
       </c>
       <c r="H282">
         <v>4591</v>
@@ -21951,6 +24249,15 @@
       </c>
       <c r="J282">
         <v>4591</v>
+      </c>
+      <c r="K282">
+        <v>4523</v>
+      </c>
+      <c r="L282">
+        <v>2175</v>
+      </c>
+      <c r="M282">
+        <v>3193</v>
       </c>
       <c r="N282">
         <v>5899</v>
@@ -22009,13 +24316,13 @@
         <v>476</v>
       </c>
       <c r="E283">
-        <v>721</v>
+        <v>253</v>
       </c>
       <c r="F283">
-        <v>1271</v>
+        <v>367</v>
       </c>
       <c r="G283">
-        <v>1067</v>
+        <v>298</v>
       </c>
       <c r="H283">
         <v>2454</v>
@@ -22025,6 +24332,15 @@
       </c>
       <c r="J283">
         <v>2454</v>
+      </c>
+      <c r="K283">
+        <v>1003</v>
+      </c>
+      <c r="L283">
+        <v>2157</v>
+      </c>
+      <c r="M283">
+        <v>1613</v>
       </c>
       <c r="N283">
         <v>3844</v>
@@ -22083,13 +24399,13 @@
         <v>52</v>
       </c>
       <c r="E284">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F284">
-        <v>425</v>
+        <v>128</v>
       </c>
       <c r="G284">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="H284">
         <v>453</v>
@@ -22099,6 +24415,15 @@
       </c>
       <c r="J284">
         <v>453</v>
+      </c>
+      <c r="K284">
+        <v>63</v>
+      </c>
+      <c r="L284">
+        <v>719</v>
+      </c>
+      <c r="M284">
+        <v>245</v>
       </c>
       <c r="N284">
         <v>677</v>
@@ -22174,6 +24499,15 @@
       <c r="J285">
         <v>0</v>
       </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
       <c r="N285">
         <v>0</v>
       </c>
@@ -22231,13 +24565,13 @@
         <v>150</v>
       </c>
       <c r="E286">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="F286">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="G286">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="H286">
         <v>1506</v>
@@ -22247,6 +24581,15 @@
       </c>
       <c r="J286">
         <v>1506</v>
+      </c>
+      <c r="K286">
+        <v>186</v>
+      </c>
+      <c r="L286">
+        <v>186</v>
+      </c>
+      <c r="M286">
+        <v>186</v>
       </c>
       <c r="N286">
         <v>1444</v>
@@ -22305,13 +24648,13 @@
         <v>375</v>
       </c>
       <c r="E287">
-        <v>1045</v>
+        <v>543</v>
       </c>
       <c r="F287">
-        <v>538</v>
+        <v>312</v>
       </c>
       <c r="G287">
-        <v>667</v>
+        <v>375</v>
       </c>
       <c r="H287">
         <v>3846</v>
@@ -22321,6 +24664,15 @@
       </c>
       <c r="J287">
         <v>3846</v>
+      </c>
+      <c r="K287">
+        <v>812</v>
+      </c>
+      <c r="L287">
+        <v>330</v>
+      </c>
+      <c r="M287">
+        <v>402</v>
       </c>
       <c r="N287">
         <v>3639</v>
@@ -22379,13 +24731,13 @@
         <v>198</v>
       </c>
       <c r="E288">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="F288">
-        <v>473</v>
+        <v>261</v>
       </c>
       <c r="G288">
-        <v>409</v>
+        <v>198</v>
       </c>
       <c r="H288">
         <v>2220</v>
@@ -22395,6 +24747,15 @@
       </c>
       <c r="J288">
         <v>2220</v>
+      </c>
+      <c r="K288">
+        <v>206</v>
+      </c>
+      <c r="L288">
+        <v>303</v>
+      </c>
+      <c r="M288">
+        <v>291</v>
       </c>
       <c r="N288">
         <v>2306</v>
@@ -22453,13 +24814,13 @@
         <v>87</v>
       </c>
       <c r="E289">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F289">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="G289">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H289">
         <v>243</v>
@@ -22469,6 +24830,15 @@
       </c>
       <c r="J289">
         <v>243</v>
+      </c>
+      <c r="K289">
+        <v>15</v>
+      </c>
+      <c r="L289">
+        <v>102</v>
+      </c>
+      <c r="M289">
+        <v>42</v>
       </c>
       <c r="N289">
         <v>556</v>
@@ -22544,6 +24914,9 @@
       <c r="J290">
         <v>0</v>
       </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
       <c r="N290">
         <v>0</v>
       </c>
@@ -22601,13 +24974,13 @@
         <v>492</v>
       </c>
       <c r="E291">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="F291">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="G291">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="H291">
         <v>1516</v>
@@ -22617,6 +24990,9 @@
       </c>
       <c r="J291">
         <v>1516</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
       </c>
       <c r="N291">
         <v>3010</v>
@@ -22675,13 +25051,13 @@
         <v>1233</v>
       </c>
       <c r="E292">
-        <v>1256</v>
+        <v>1273</v>
       </c>
       <c r="F292">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="G292">
-        <v>1084</v>
+        <v>1134</v>
       </c>
       <c r="H292">
         <v>3918</v>
@@ -22691,6 +25067,9 @@
       </c>
       <c r="J292">
         <v>3918</v>
+      </c>
+      <c r="K292">
+        <v>61</v>
       </c>
       <c r="N292">
         <v>7874</v>
@@ -22749,13 +25128,13 @@
         <v>732</v>
       </c>
       <c r="E293">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="F293">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="G293">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="H293">
         <v>1951</v>
@@ -22765,6 +25144,9 @@
       </c>
       <c r="J293">
         <v>1951</v>
+      </c>
+      <c r="K293">
+        <v>6</v>
       </c>
       <c r="N293">
         <v>4389</v>
@@ -22823,13 +25205,13 @@
         <v>90</v>
       </c>
       <c r="E294">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F294">
         <v>264</v>
       </c>
       <c r="G294">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="H294">
         <v>291</v>
@@ -22839,6 +25221,9 @@
       </c>
       <c r="J294">
         <v>291</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
       </c>
       <c r="N294">
         <v>871</v>
@@ -22914,6 +25299,9 @@
       <c r="J295">
         <v>0</v>
       </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
       <c r="N295">
         <v>0</v>
       </c>
@@ -22971,13 +25359,13 @@
         <v>712</v>
       </c>
       <c r="E296">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="F296">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="G296">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="H296">
         <v>904</v>
@@ -22987,6 +25375,9 @@
       </c>
       <c r="J296">
         <v>904</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
       </c>
       <c r="N296">
         <v>4084</v>
@@ -23045,13 +25436,13 @@
         <v>1815</v>
       </c>
       <c r="E297">
-        <v>1715</v>
+        <v>1791</v>
       </c>
       <c r="F297">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="G297">
-        <v>1256</v>
+        <v>1326</v>
       </c>
       <c r="H297">
         <v>2278</v>
@@ -23061,6 +25452,9 @@
       </c>
       <c r="J297">
         <v>2278</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
       </c>
       <c r="N297">
         <v>10734</v>
@@ -23119,13 +25513,13 @@
         <v>906</v>
       </c>
       <c r="E298">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="F298">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="G298">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="H298">
         <v>1266</v>
@@ -23193,13 +25587,13 @@
         <v>141</v>
       </c>
       <c r="E299">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F299">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G299">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H299">
         <v>153</v>
@@ -23341,13 +25735,13 @@
         <v>518</v>
       </c>
       <c r="E301">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="F301">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="G301">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="H301">
         <v>452</v>
@@ -23415,13 +25809,13 @@
         <v>1308</v>
       </c>
       <c r="E302">
-        <v>881</v>
+        <v>1240</v>
       </c>
       <c r="F302">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="G302">
-        <v>485</v>
+        <v>801</v>
       </c>
       <c r="H302">
         <v>1150</v>
@@ -23489,13 +25883,13 @@
         <v>661</v>
       </c>
       <c r="E303">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="F303">
-        <v>341</v>
+        <v>591</v>
       </c>
       <c r="G303">
-        <v>285</v>
+        <v>507</v>
       </c>
       <c r="H303">
         <v>611</v>
@@ -23563,13 +25957,13 @@
         <v>154</v>
       </c>
       <c r="E304">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F304">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="G304">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H304">
         <v>99</v>
@@ -23702,13 +26096,13 @@
         <v>8</v>
       </c>
       <c r="E306">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F306">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G306">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H306">
         <v>26</v>
@@ -23770,13 +26164,13 @@
         <v>24</v>
       </c>
       <c r="E307">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F307">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G307">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H307">
         <v>69</v>
@@ -23838,13 +26232,13 @@
         <v>8</v>
       </c>
       <c r="E308">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F308">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G308">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H308">
         <v>35</v>
@@ -23906,7 +26300,7 @@
         <v>0</v>
       </c>
       <c r="F309">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G309">
         <v>6</v>
@@ -25828,13 +28222,13 @@
         <v>72.265685159971099</v>
       </c>
       <c r="E367">
-        <v>72.649466023087498</v>
+        <v>71.428473728419107</v>
       </c>
       <c r="F367">
-        <v>72.233914972924794</v>
+        <v>71.019300437183404</v>
       </c>
       <c r="G367">
-        <v>72.067527253734895</v>
+        <v>70.852912717993405</v>
       </c>
       <c r="H367">
         <v>70.8196505723336</v>
@@ -25844,6 +28238,15 @@
       </c>
       <c r="J367">
         <v>70.8196505723336</v>
+      </c>
+      <c r="K367">
+        <v>66.647349814007995</v>
+      </c>
+      <c r="L367">
+        <v>66.181165114941805</v>
+      </c>
+      <c r="M367">
+        <v>66.014777395751906</v>
       </c>
       <c r="N367">
         <v>80.151400852726098</v>
